--- a/LiClassProject/라이클래스 팀프로젝트 산출물/11.테스트 시나리오/3조_LiClas_테스트 시나리오(클래스,스튜디오,센터,공지문의게시판)(최종).xlsx
+++ b/LiClassProject/라이클래스 팀프로젝트 산출물/11.테스트 시나리오/3조_LiClas_테스트 시나리오(클래스,스튜디오,센터,공지문의게시판)(최종).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\문서\GitHub\LiClassProject\LiClassProject\라이클래스 팀프로젝트 산출물\11.테스트 시나리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1694FD-B7E0-441E-9A18-F496784D6052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623F2A7A-67C8-4B9C-8D40-7CACC0BC4A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1183,35 +1183,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1235,14 +1220,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1797,22 +1797,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -1830,32 +1830,32 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="32" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="35" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="39"/>
+      <c r="N2" s="34"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1885,8 +1885,8 @@
       <c r="D3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="5" t="s">
         <v>71</v>
       </c>
@@ -1928,13 +1928,13 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="40" t="s">
         <v>132</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1975,9 +1975,9 @@
       <c r="AC4" s="12"/>
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="12" t="s">
         <v>120</v>
       </c>
@@ -2016,13 +2016,13 @@
       <c r="AC5" s="12"/>
     </row>
     <row r="6" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="20" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="35" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -2057,11 +2057,11 @@
       <c r="AC6" s="12"/>
     </row>
     <row r="7" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="23"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
@@ -2094,11 +2094,11 @@
       <c r="AC7" s="12"/>
     </row>
     <row r="8" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="14" t="s">
         <v>106</v>
       </c>
@@ -2131,11 +2131,11 @@
       <c r="AC8" s="12"/>
     </row>
     <row r="9" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="15" t="s">
         <v>101</v>
       </c>
@@ -2168,11 +2168,11 @@
       <c r="AC9" s="12"/>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="14" t="s">
         <v>37</v>
       </c>
@@ -2205,9 +2205,9 @@
       <c r="AC10" s="12"/>
     </row>
     <row r="11" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="8" t="s">
         <v>67</v>
       </c>
@@ -2248,15 +2248,15 @@
       <c r="AC11" s="12"/>
     </row>
     <row r="12" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="20" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="35" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -2291,11 +2291,11 @@
       <c r="AC12" s="12"/>
     </row>
     <row r="13" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="14" t="s">
         <v>5</v>
       </c>
@@ -2328,10 +2328,10 @@
       <c r="AC13" s="12"/>
     </row>
     <row r="14" spans="1:29" s="2" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
         <v>114</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -2371,28 +2371,28 @@
       <c r="AC14" s="12"/>
     </row>
     <row r="15" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="23" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="23" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -2410,20 +2410,20 @@
       <c r="AC15" s="12"/>
     </row>
     <row r="16" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -2441,9 +2441,9 @@
       <c r="AC16" s="12"/>
     </row>
     <row r="17" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="12" t="s">
         <v>70</v>
       </c>
@@ -2482,9 +2482,9 @@
       <c r="AC17" s="12"/>
     </row>
     <row r="18" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="12" t="s">
         <v>48</v>
       </c>
@@ -2523,9 +2523,9 @@
       <c r="AC18" s="12"/>
     </row>
     <row r="19" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="12" t="s">
         <v>62</v>
       </c>
@@ -2564,13 +2564,13 @@
       <c r="AC19" s="12"/>
     </row>
     <row r="20" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="23" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -2605,11 +2605,11 @@
       <c r="AC20" s="12"/>
     </row>
     <row r="21" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="14" t="s">
         <v>146</v>
       </c>
@@ -2642,10 +2642,10 @@
       <c r="AC21" s="12"/>
     </row>
     <row r="22" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="13" t="s">
         <v>38</v>
       </c>
@@ -2683,10 +2683,10 @@
       <c r="AC22" s="12"/>
     </row>
     <row r="23" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="13" t="s">
         <v>142</v>
       </c>
@@ -2722,10 +2722,10 @@
       <c r="AC23" s="12"/>
     </row>
     <row r="24" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="13" t="s">
         <v>143</v>
       </c>
@@ -2761,10 +2761,10 @@
       <c r="AC24" s="12"/>
     </row>
     <row r="25" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
         <v>115</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -2802,10 +2802,10 @@
       <c r="AC25" s="12"/>
     </row>
     <row r="26" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="13" t="s">
         <v>69</v>
       </c>
@@ -2841,10 +2841,10 @@
       <c r="AC26" s="12"/>
     </row>
     <row r="27" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="13" t="s">
         <v>122</v>
       </c>
@@ -2880,10 +2880,10 @@
       <c r="AC27" s="12"/>
     </row>
     <row r="28" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="13" t="s">
         <v>151</v>
       </c>
@@ -2919,10 +2919,10 @@
       <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="13" t="s">
         <v>60</v>
       </c>
@@ -2958,13 +2958,13 @@
       <c r="AC29" s="12"/>
     </row>
     <row r="30" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="35" t="s">
         <v>139</v>
       </c>
       <c r="F30" s="14" t="s">
@@ -2999,11 +2999,11 @@
       <c r="AC30" s="12"/>
     </row>
     <row r="31" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="23"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="14" t="s">
         <v>96</v>
       </c>
@@ -3036,11 +3036,11 @@
       <c r="AC31" s="12"/>
     </row>
     <row r="32" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="23" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="35" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="14" t="s">
@@ -3075,11 +3075,11 @@
       <c r="AC32" s="12"/>
     </row>
     <row r="33" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="23"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="35"/>
       <c r="F33" s="14" t="s">
         <v>14</v>
       </c>
@@ -3112,11 +3112,11 @@
       <c r="AC33" s="12"/>
     </row>
     <row r="34" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="23"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="14" t="s">
         <v>100</v>
       </c>
@@ -3149,10 +3149,10 @@
       <c r="AC34" s="12"/>
     </row>
     <row r="35" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="13" t="s">
         <v>79</v>
       </c>
@@ -3188,11 +3188,11 @@
       <c r="AC35" s="12"/>
     </row>
     <row r="36" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="23" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="35" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="14" t="s">
@@ -3227,11 +3227,11 @@
       <c r="AC36" s="12"/>
     </row>
     <row r="37" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="23"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="14" t="s">
         <v>175</v>
       </c>
@@ -3264,11 +3264,11 @@
       <c r="AC37" s="12"/>
     </row>
     <row r="38" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="23"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="14" t="s">
         <v>99</v>
       </c>
@@ -3301,11 +3301,11 @@
       <c r="AC38" s="12"/>
     </row>
     <row r="39" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="23" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="14" t="s">
@@ -3340,11 +3340,11 @@
       <c r="AC39" s="12"/>
     </row>
     <row r="40" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="23"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="14" t="s">
         <v>36</v>
       </c>
@@ -3377,11 +3377,11 @@
       <c r="AC40" s="12"/>
     </row>
     <row r="41" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="23" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="35" t="s">
         <v>135</v>
       </c>
       <c r="F41" s="14" t="s">
@@ -3416,11 +3416,11 @@
       <c r="AC41" s="12"/>
     </row>
     <row r="42" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="23"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="14" t="s">
         <v>165</v>
       </c>
@@ -3453,11 +3453,11 @@
       <c r="AC42" s="12"/>
     </row>
     <row r="43" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="23" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="35" t="s">
         <v>134</v>
       </c>
       <c r="F43" s="14" t="s">
@@ -3492,11 +3492,11 @@
       <c r="AC43" s="12"/>
     </row>
     <row r="44" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="23"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="14" t="s">
         <v>168</v>
       </c>
@@ -3529,11 +3529,11 @@
       <c r="AC44" s="12"/>
     </row>
     <row r="45" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="23"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="14" t="s">
         <v>191</v>
       </c>
@@ -3566,11 +3566,11 @@
       <c r="AC45" s="12"/>
     </row>
     <row r="46" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="23"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="2" t="s">
         <v>88</v>
       </c>
@@ -3603,11 +3603,11 @@
       <c r="AC46" s="12"/>
     </row>
     <row r="47" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="23" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="35" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="14" t="s">
@@ -3642,11 +3642,11 @@
       <c r="AC47" s="12"/>
     </row>
     <row r="48" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="23"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="14" t="s">
         <v>41</v>
       </c>
@@ -3679,10 +3679,10 @@
       <c r="AC48" s="12"/>
     </row>
     <row r="49" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -3724,12 +3724,12 @@
       <c r="AC49" s="12"/>
     </row>
     <row r="50" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="20" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="42"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="13" t="s">
         <v>93</v>
       </c>
@@ -3765,10 +3765,10 @@
       <c r="AC50" s="12"/>
     </row>
     <row r="51" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="42"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="13" t="s">
         <v>198</v>
       </c>
@@ -3804,10 +3804,10 @@
       <c r="AC51" s="12"/>
     </row>
     <row r="52" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="42"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="13" t="s">
         <v>4</v>
       </c>
@@ -3843,10 +3843,10 @@
       <c r="AC52" s="12"/>
     </row>
     <row r="53" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -3888,13 +3888,13 @@
       <c r="AC53" s="12"/>
     </row>
     <row r="54" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="40"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="20" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="23" t="s">
+      <c r="D54" s="22"/>
+      <c r="E54" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F54" s="14" t="s">
@@ -3927,11 +3927,11 @@
       <c r="AC54" s="12"/>
     </row>
     <row r="55" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
       <c r="F55" s="14" t="s">
         <v>193</v>
       </c>
@@ -3962,11 +3962,11 @@
       <c r="AC55" s="12"/>
     </row>
     <row r="56" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="40"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
       <c r="F56" s="14" t="s">
         <v>150</v>
       </c>
@@ -3997,11 +3997,11 @@
       <c r="AC56" s="12"/>
     </row>
     <row r="57" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="40"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="14" t="s">
         <v>154</v>
       </c>
@@ -4034,11 +4034,11 @@
       <c r="AC57" s="12"/>
     </row>
     <row r="58" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="40"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="14" t="s">
         <v>171</v>
       </c>
@@ -4069,11 +4069,11 @@
       <c r="AC58" s="12"/>
     </row>
     <row r="59" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="40"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="14" t="s">
         <v>172</v>
       </c>
@@ -4104,11 +4104,11 @@
       <c r="AC59" s="12"/>
     </row>
     <row r="60" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="40"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="23"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="35"/>
       <c r="F60" s="14" t="s">
         <v>11</v>
       </c>
@@ -4139,10 +4139,10 @@
       <c r="AC60" s="12"/>
     </row>
     <row r="61" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="40"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="13" t="s">
         <v>145</v>
       </c>
@@ -4176,19 +4176,19 @@
       <c r="AC61" s="12"/>
     </row>
     <row r="62" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="35" t="s">
         <v>119</v>
       </c>
       <c r="F62" s="14" t="s">
@@ -4223,11 +4223,11 @@
       <c r="AC62" s="12"/>
     </row>
     <row r="63" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="23"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="35"/>
       <c r="F63" s="14" t="s">
         <v>95</v>
       </c>
@@ -4260,11 +4260,11 @@
       <c r="AC63" s="12"/>
     </row>
     <row r="64" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="23" t="s">
+      <c r="A64" s="41"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="35" t="s">
         <v>68</v>
       </c>
       <c r="F64" s="14" t="s">
@@ -4301,11 +4301,11 @@
       <c r="AC64" s="12"/>
     </row>
     <row r="65" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="23"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="35"/>
       <c r="F65" s="14" t="s">
         <v>205</v>
       </c>
@@ -4338,11 +4338,11 @@
       <c r="AC65" s="12"/>
     </row>
     <row r="66" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="23"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="35"/>
       <c r="F66" s="14" t="s">
         <v>200</v>
       </c>
@@ -4375,11 +4375,11 @@
       <c r="AC66" s="12"/>
     </row>
     <row r="67" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="23"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="14" t="s">
         <v>199</v>
       </c>
@@ -4412,10 +4412,10 @@
       <c r="AC67" s="12"/>
     </row>
     <row r="68" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20" t="s">
+      <c r="A68" s="41"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22" t="s">
         <v>74</v>
       </c>
       <c r="E68" s="13" t="s">
@@ -4453,11 +4453,11 @@
       <c r="AC68" s="12"/>
     </row>
     <row r="69" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="23" t="s">
+      <c r="A69" s="41"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="35" t="s">
         <v>76</v>
       </c>
       <c r="F69" s="14" t="s">
@@ -4492,11 +4492,11 @@
       <c r="AC69" s="12"/>
     </row>
     <row r="70" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="23"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="35"/>
       <c r="F70" s="14" t="s">
         <v>167</v>
       </c>
@@ -4529,11 +4529,11 @@
       <c r="AC70" s="12"/>
     </row>
     <row r="71" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="23"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="35"/>
       <c r="F71" s="14" t="s">
         <v>0</v>
       </c>
@@ -4568,11 +4568,11 @@
       <c r="AC71" s="12"/>
     </row>
     <row r="72" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="23" t="s">
+      <c r="A72" s="41"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="35" t="s">
         <v>140</v>
       </c>
       <c r="F72" s="14" t="s">
@@ -4607,11 +4607,11 @@
       <c r="AC72" s="12"/>
     </row>
     <row r="73" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="23"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="35"/>
       <c r="F73" s="14" t="s">
         <v>190</v>
       </c>
@@ -4644,10 +4644,10 @@
       <c r="AC73" s="12"/>
     </row>
     <row r="74" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="13" t="s">
         <v>81</v>
       </c>
@@ -4683,10 +4683,10 @@
       <c r="AC74" s="12"/>
     </row>
     <row r="75" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
       <c r="E75" s="13" t="s">
         <v>118</v>
       </c>
@@ -4722,10 +4722,10 @@
       <c r="AC75" s="12"/>
     </row>
     <row r="76" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="22"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20" t="s">
+      <c r="A76" s="41"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22" t="s">
         <v>129</v>
       </c>
       <c r="E76" s="13" t="s">
@@ -4763,11 +4763,11 @@
       <c r="AC76" s="12"/>
     </row>
     <row r="77" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="23" t="s">
+      <c r="A77" s="41"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="35" t="s">
         <v>129</v>
       </c>
       <c r="F77" s="14" t="s">
@@ -4802,11 +4802,11 @@
       <c r="AC77" s="12"/>
     </row>
     <row r="78" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="23"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="35"/>
       <c r="F78" s="14" t="s">
         <v>104</v>
       </c>
@@ -4839,11 +4839,11 @@
       <c r="AC78" s="12"/>
     </row>
     <row r="79" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="23"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="35"/>
       <c r="F79" s="14" t="s">
         <v>156</v>
       </c>
@@ -4874,10 +4874,10 @@
       <c r="AC79" s="12"/>
     </row>
     <row r="80" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="13" t="s">
         <v>130</v>
       </c>
@@ -4911,10 +4911,10 @@
       <c r="AC80" s="12"/>
     </row>
     <row r="81" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="22"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20" t="s">
+      <c r="A81" s="41"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22" t="s">
         <v>75</v>
       </c>
       <c r="E81" s="13" t="s">
@@ -4950,11 +4950,11 @@
       <c r="AC81" s="12"/>
     </row>
     <row r="82" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="23" t="s">
+      <c r="A82" s="41"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="35" t="s">
         <v>113</v>
       </c>
       <c r="F82" s="14" t="s">
@@ -4987,11 +4987,11 @@
       <c r="AC82" s="12"/>
     </row>
     <row r="83" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="23"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="35"/>
       <c r="F83" s="14" t="s">
         <v>178</v>
       </c>
@@ -5022,13 +5022,13 @@
       <c r="AC83" s="12"/>
     </row>
     <row r="84" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="22"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20" t="s">
+      <c r="A84" s="41"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="35" t="s">
         <v>80</v>
       </c>
       <c r="F84" s="14" t="s">
@@ -5061,11 +5061,11 @@
       <c r="AC84" s="12"/>
     </row>
     <row r="85" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="22"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="23"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="35"/>
       <c r="F85" s="14" t="s">
         <v>185</v>
       </c>
@@ -5096,10 +5096,10 @@
       <c r="AC85" s="12"/>
     </row>
     <row r="86" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20" t="s">
+      <c r="A86" s="41"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="12" t="s">
@@ -5135,10 +5135,10 @@
       <c r="AC86" s="12"/>
     </row>
     <row r="87" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="12" t="s">
         <v>91</v>
       </c>
@@ -5172,11 +5172,11 @@
       <c r="AC87" s="12"/>
     </row>
     <row r="88" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="22"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="23" t="s">
+      <c r="A88" s="41"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="35" t="s">
         <v>26</v>
       </c>
       <c r="F88" s="14" t="s">
@@ -5209,11 +5209,11 @@
       <c r="AC88" s="12"/>
     </row>
     <row r="89" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="22"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="23"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="35"/>
       <c r="F89" s="14" t="s">
         <v>180</v>
       </c>
@@ -5244,10 +5244,10 @@
       <c r="AC89" s="12"/>
     </row>
     <row r="90" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="22"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
       <c r="E90" s="13" t="s">
         <v>86</v>
       </c>
@@ -5281,11 +5281,11 @@
       <c r="AC90" s="12"/>
     </row>
     <row r="91" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="22"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="23" t="s">
+      <c r="A91" s="41"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F91" s="14" t="s">
@@ -5318,11 +5318,11 @@
       <c r="AC91" s="12"/>
     </row>
     <row r="92" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="22"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="23"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="35"/>
       <c r="F92" s="14" t="s">
         <v>166</v>
       </c>
@@ -5353,11 +5353,11 @@
       <c r="AC92" s="12"/>
     </row>
     <row r="93" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="22"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="23"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="35"/>
       <c r="F93" s="14" t="s">
         <v>188</v>
       </c>
@@ -5388,10 +5388,10 @@
       <c r="AC93" s="12"/>
     </row>
     <row r="94" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="22"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20" t="s">
+      <c r="A94" s="41"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22" t="s">
         <v>127</v>
       </c>
       <c r="E94" s="13" t="s">
@@ -5427,10 +5427,10 @@
       <c r="AC94" s="12"/>
     </row>
     <row r="95" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="22"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
       <c r="E95" s="13" t="s">
         <v>123</v>
       </c>
@@ -5464,11 +5464,11 @@
       <c r="AC95" s="12"/>
     </row>
     <row r="96" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="22"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="23" t="s">
+      <c r="A96" s="41"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F96" s="14" t="s">
@@ -5501,11 +5501,11 @@
       <c r="AC96" s="12"/>
     </row>
     <row r="97" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="22"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="23"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="35"/>
       <c r="F97" s="14" t="s">
         <v>195</v>
       </c>
@@ -5536,11 +5536,11 @@
       <c r="AC97" s="12"/>
     </row>
     <row r="98" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="22"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="23"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="35"/>
       <c r="F98" s="14" t="s">
         <v>164</v>
       </c>
@@ -5571,11 +5571,11 @@
       <c r="AC98" s="12"/>
     </row>
     <row r="99" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="22"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="23"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="35"/>
       <c r="F99" s="14" t="s">
         <v>159</v>
       </c>
@@ -5606,11 +5606,11 @@
       <c r="AC99" s="12"/>
     </row>
     <row r="100" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="22"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="23"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="35"/>
       <c r="F100" s="14" t="s">
         <v>6</v>
       </c>
@@ -19192,40 +19192,22 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C12:C48"/>
-    <mergeCell ref="A4:A48"/>
-    <mergeCell ref="B4:B48"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D30:D48"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="B62:B100"/>
+    <mergeCell ref="A62:A100"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="D94:D100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D54:D61"/>
     <mergeCell ref="C62:C100"/>
     <mergeCell ref="D62:D67"/>
     <mergeCell ref="E62:E63"/>
@@ -19242,22 +19224,40 @@
     <mergeCell ref="D86:D93"/>
     <mergeCell ref="E88:E89"/>
     <mergeCell ref="E91:E93"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="B62:B100"/>
-    <mergeCell ref="A62:A100"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="D94:D100"/>
-    <mergeCell ref="E96:E100"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="A4:A48"/>
+    <mergeCell ref="B4:B48"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D30:D48"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C12:C48"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:B61"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>

--- a/LiClassProject/라이클래스 팀프로젝트 산출물/11.테스트 시나리오/3조_LiClas_테스트 시나리오(클래스,스튜디오,센터,공지문의게시판)(최종).xlsx
+++ b/LiClassProject/라이클래스 팀프로젝트 산출물/11.테스트 시나리오/3조_LiClas_테스트 시나리오(클래스,스튜디오,센터,공지문의게시판)(최종).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\문서\GitHub\LiClassProject\LiClassProject\라이클래스 팀프로젝트 산출물\11.테스트 시나리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623F2A7A-67C8-4B9C-8D40-7CACC0BC4A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A98122-AA54-476C-9F8A-6BD1E8399909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="215">
   <si>
     <t>최소 1개이상 최대 5개이하의 사진이 정상적으로 등록되는가?</t>
   </si>
@@ -383,9 +383,6 @@
     <t>이미지 조회 영역에서 해당 클래스의 등록 이미지들이 썸네일 크기로 적절하게 보여지는가?</t>
   </si>
   <si>
-    <t>클래스 상세화면의 회차정보조회 영역에서 해당 클래스 하위의 모든 회차들의 정보가 조회되는가?</t>
-  </si>
-  <si>
     <t>로그인한 상태일 때 관심클래스에 기존에 있던 클래스이면 알림창과 함께 빨간하트로 변하는가?</t>
   </si>
   <si>
@@ -638,9 +635,6 @@
   </si>
   <si>
     <t>전체키워드에서 클래스 검색이 정상적으로 수행되는가?</t>
-  </si>
-  <si>
-    <t>수정할 이미지를 선택하지 않는 경우 수정을 제어하는가?</t>
   </si>
   <si>
     <t>회차등록폼 요소가 공백으로 등록되는 것을 제어하는가?</t>
@@ -817,9 +811,6 @@
   </si>
   <si>
     <t>클래스 등록폼 페이지로 정상적으로 전환되는가?</t>
-  </si>
-  <si>
-    <t>클래스 이미지 수정화면으로 정상적으로 전환되는가?</t>
   </si>
   <si>
     <t>클래스 리스트화면으로 정상적으로 전환되는가?</t>
@@ -905,12 +896,497 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>classDelete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">메서드에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">c_no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못찾음</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정화면으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정상적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전환되는가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제어하는가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세화면의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회차정보조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영역에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하위의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회차들의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회되는가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -959,6 +1435,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1126,7 +1609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,20 +1666,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1220,29 +1718,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1773,11 +2259,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="D64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
@@ -1796,23 +2282,23 @@
     <col min="15" max="16384" width="12.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+    <row r="1" spans="1:29" ht="71.45" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -1829,33 +2315,33 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:29" ht="24" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="27" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="34"/>
+      <c r="N2" s="39"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1872,7 +2358,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="22.5">
       <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
@@ -1885,8 +2371,8 @@
       <c r="D3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="5" t="s">
         <v>71</v>
       </c>
@@ -1900,7 +2386,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>90</v>
@@ -1927,21 +2413,21 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>132</v>
+      <c r="B4" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>2</v>
@@ -1952,7 +2438,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -1974,12 +2460,12 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
     </row>
-    <row r="5" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
+    <row r="5" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>83</v>
@@ -1993,7 +2479,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -2015,14 +2501,14 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
     </row>
-    <row r="6" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="35" t="s">
+    <row r="6" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -2034,7 +2520,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -2056,12 +2542,12 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
     </row>
-    <row r="7" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="35"/>
+    <row r="7" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
@@ -2071,7 +2557,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -2093,14 +2579,14 @@
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
     </row>
-    <row r="8" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="35"/>
+    <row r="8" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>30</v>
@@ -2108,7 +2594,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -2130,12 +2616,12 @@
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
-    <row r="9" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="35"/>
+    <row r="9" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="15" t="s">
         <v>101</v>
       </c>
@@ -2145,7 +2631,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -2167,12 +2653,12 @@
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
-    <row r="10" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="35"/>
+    <row r="10" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="14" t="s">
         <v>37</v>
       </c>
@@ -2182,7 +2668,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -2204,15 +2690,15 @@
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
     </row>
-    <row r="11" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
+    <row r="11" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>35</v>
@@ -2223,11 +2709,11 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -2247,16 +2733,16 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
     </row>
-    <row r="12" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="35" t="s">
+    <row r="12" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -2268,7 +2754,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -2290,12 +2776,12 @@
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
     </row>
-    <row r="13" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="35"/>
+    <row r="13" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="14" t="s">
         <v>5</v>
       </c>
@@ -2305,7 +2791,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -2327,30 +2813,30 @@
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
     </row>
-    <row r="14" spans="1:29" s="2" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>114</v>
+    <row r="14" spans="1:29" s="2" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -2370,29 +2856,29 @@
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
     </row>
-    <row r="15" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="22" t="s">
+    <row r="15" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -2409,21 +2895,21 @@
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
     </row>
-    <row r="16" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
+    <row r="16" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -2440,10 +2926,10 @@
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
     </row>
-    <row r="17" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="22"/>
+    <row r="17" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="12" t="s">
         <v>70</v>
       </c>
@@ -2451,7 +2937,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>30</v>
@@ -2459,7 +2945,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -2481,10 +2967,10 @@
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
     </row>
-    <row r="18" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="22"/>
+    <row r="18" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="12" t="s">
         <v>48</v>
       </c>
@@ -2492,7 +2978,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>30</v>
@@ -2500,7 +2986,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -2522,10 +3008,10 @@
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
-    <row r="19" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="22"/>
+    <row r="19" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="12" t="s">
         <v>62</v>
       </c>
@@ -2541,7 +3027,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -2563,14 +3049,14 @@
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
-    <row r="20" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="35" t="s">
+    <row r="20" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -2582,7 +3068,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -2604,14 +3090,14 @@
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
     </row>
-    <row r="21" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="35"/>
+    <row r="21" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>30</v>
@@ -2619,7 +3105,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -2641,24 +3127,24 @@
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
     </row>
-    <row r="22" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="42"/>
+    <row r="22" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11" t="s">
@@ -2682,24 +3168,24 @@
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
     </row>
-    <row r="23" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="42"/>
+    <row r="23" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -2721,24 +3207,24 @@
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
     </row>
-    <row r="24" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="42"/>
+    <row r="24" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -2760,12 +3246,12 @@
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
     </row>
-    <row r="25" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>115</v>
+    <row r="25" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>59</v>
@@ -2779,7 +3265,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -2801,11 +3287,11 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
     </row>
-    <row r="26" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+    <row r="26" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="13" t="s">
         <v>69</v>
       </c>
@@ -2818,7 +3304,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -2840,16 +3326,16 @@
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
     </row>
-    <row r="27" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+    <row r="27" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>30</v>
@@ -2857,7 +3343,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -2879,16 +3365,16 @@
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
     </row>
-    <row r="28" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+    <row r="28" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>30</v>
@@ -2896,7 +3382,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -2918,16 +3404,16 @@
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
-    <row r="29" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+    <row r="29" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="13" t="s">
         <v>60</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>30</v>
@@ -2935,7 +3421,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -2957,26 +3443,26 @@
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
     </row>
-    <row r="30" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
+    <row r="30" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="35" t="s">
-        <v>139</v>
+      <c r="E30" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -2998,12 +3484,12 @@
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
     </row>
-    <row r="31" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="35"/>
+    <row r="31" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="14" t="s">
         <v>96</v>
       </c>
@@ -3013,7 +3499,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -3035,16 +3521,16 @@
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
     </row>
-    <row r="32" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="35" t="s">
+    <row r="32" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="23" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>30</v>
@@ -3052,7 +3538,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -3074,12 +3560,12 @@
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
     </row>
-    <row r="33" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="35"/>
+    <row r="33" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="14" t="s">
         <v>14</v>
       </c>
@@ -3089,7 +3575,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -3111,12 +3597,12 @@
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
     </row>
-    <row r="34" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="35"/>
+    <row r="34" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="14" t="s">
         <v>100</v>
       </c>
@@ -3126,7 +3612,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
@@ -3148,16 +3634,16 @@
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
     </row>
-    <row r="35" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+    <row r="35" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="13" t="s">
         <v>79</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>30</v>
@@ -3165,7 +3651,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
@@ -3187,12 +3673,12 @@
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
     </row>
-    <row r="36" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="35" t="s">
+    <row r="36" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="23" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="14" t="s">
@@ -3204,7 +3690,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
@@ -3226,14 +3712,14 @@
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
     </row>
-    <row r="37" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="35"/>
+    <row r="37" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>30</v>
@@ -3241,7 +3727,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
@@ -3263,12 +3749,12 @@
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
     </row>
-    <row r="38" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="35"/>
+    <row r="38" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="14" t="s">
         <v>99</v>
       </c>
@@ -3278,7 +3764,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -3300,16 +3786,16 @@
       <c r="AB38" s="12"/>
       <c r="AC38" s="12"/>
     </row>
-    <row r="39" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="35" t="s">
+    <row r="39" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>30</v>
@@ -3317,7 +3803,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
@@ -3339,12 +3825,12 @@
       <c r="AB39" s="12"/>
       <c r="AC39" s="12"/>
     </row>
-    <row r="40" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="35"/>
+    <row r="40" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="14" t="s">
         <v>36</v>
       </c>
@@ -3354,7 +3840,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
@@ -3376,13 +3862,13 @@
       <c r="AB40" s="12"/>
       <c r="AC40" s="12"/>
     </row>
-    <row r="41" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="35" t="s">
-        <v>135</v>
+    <row r="41" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>103</v>
@@ -3393,7 +3879,7 @@
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
@@ -3415,14 +3901,14 @@
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
     </row>
-    <row r="42" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="35"/>
+    <row r="42" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>30</v>
@@ -3430,7 +3916,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
@@ -3452,16 +3938,16 @@
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
     </row>
-    <row r="43" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="35" t="s">
-        <v>134</v>
+    <row r="43" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>30</v>
@@ -3469,7 +3955,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
@@ -3491,14 +3977,14 @@
       <c r="AB43" s="12"/>
       <c r="AC43" s="12"/>
     </row>
-    <row r="44" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="35"/>
+    <row r="44" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>30</v>
@@ -3506,7 +3992,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
@@ -3528,14 +4014,14 @@
       <c r="AB44" s="12"/>
       <c r="AC44" s="12"/>
     </row>
-    <row r="45" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="35"/>
+    <row r="45" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>30</v>
@@ -3543,7 +4029,7 @@
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
@@ -3565,12 +4051,12 @@
       <c r="AB45" s="12"/>
       <c r="AC45" s="12"/>
     </row>
-    <row r="46" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="35"/>
+    <row r="46" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="2" t="s">
         <v>88</v>
       </c>
@@ -3580,7 +4066,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
@@ -3602,12 +4088,12 @@
       <c r="AB46" s="12"/>
       <c r="AC46" s="12"/>
     </row>
-    <row r="47" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="35" t="s">
+    <row r="47" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="14" t="s">
@@ -3619,7 +4105,7 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -3641,12 +4127,12 @@
       <c r="AB47" s="12"/>
       <c r="AC47" s="12"/>
     </row>
-    <row r="48" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="35"/>
+    <row r="48" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="14" t="s">
         <v>41</v>
       </c>
@@ -3656,7 +4142,7 @@
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -3678,12 +4164,12 @@
       <c r="AB48" s="12"/>
       <c r="AC48" s="12"/>
     </row>
-    <row r="49" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>111</v>
+    <row r="49" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A49" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>54</v>
@@ -3693,7 +4179,7 @@
         <v>25</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>30</v>
@@ -3701,7 +4187,7 @@
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
@@ -3723,18 +4209,18 @@
       <c r="AB49" s="12"/>
       <c r="AC49" s="12"/>
     </row>
-    <row r="50" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="22" t="s">
+    <row r="50" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A50" s="41"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="24"/>
+      <c r="D50" s="42"/>
       <c r="E50" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>30</v>
@@ -3742,7 +4228,7 @@
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
@@ -3764,16 +4250,16 @@
       <c r="AB50" s="12"/>
       <c r="AC50" s="12"/>
     </row>
-    <row r="51" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="24"/>
+    <row r="51" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A51" s="41"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="42"/>
       <c r="E51" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>30</v>
@@ -3781,7 +4267,7 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -3803,16 +4289,16 @@
       <c r="AB51" s="12"/>
       <c r="AC51" s="12"/>
     </row>
-    <row r="52" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="24"/>
+    <row r="52" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A52" s="41"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="42"/>
       <c r="E52" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>30</v>
@@ -3820,7 +4306,7 @@
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
@@ -3842,19 +4328,19 @@
       <c r="AB52" s="12"/>
       <c r="AC52" s="12"/>
     </row>
-    <row r="53" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
+    <row r="53" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A53" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>17</v>
@@ -3863,11 +4349,11 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K53" s="11"/>
       <c r="L53" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
@@ -3887,24 +4373,24 @@
       <c r="AB53" s="12"/>
       <c r="AC53" s="12"/>
     </row>
-    <row r="54" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="35" t="s">
+    <row r="54" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A54" s="40"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="23" t="s">
         <v>34</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
@@ -3926,20 +4412,20 @@
       <c r="AB54" s="12"/>
       <c r="AC54" s="12"/>
     </row>
-    <row r="55" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+    <row r="55" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A55" s="40"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
       <c r="F55" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
@@ -3961,20 +4447,20 @@
       <c r="AB55" s="12"/>
       <c r="AC55" s="12"/>
     </row>
-    <row r="56" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
+    <row r="56" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A56" s="40"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
@@ -3996,20 +4482,20 @@
       <c r="AB56" s="12"/>
       <c r="AC56" s="12"/>
     </row>
-    <row r="57" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+    <row r="57" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A57" s="40"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K57" s="11"/>
       <c r="L57" s="11" t="s">
@@ -4033,20 +4519,20 @@
       <c r="AB57" s="12"/>
       <c r="AC57" s="12"/>
     </row>
-    <row r="58" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
+    <row r="58" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A58" s="40"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
@@ -4068,20 +4554,20 @@
       <c r="AB58" s="12"/>
       <c r="AC58" s="12"/>
     </row>
-    <row r="59" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+    <row r="59" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A59" s="40"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
       <c r="F59" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
@@ -4103,12 +4589,12 @@
       <c r="AB59" s="12"/>
       <c r="AC59" s="12"/>
     </row>
-    <row r="60" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="35"/>
+    <row r="60" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A60" s="40"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="14" t="s">
         <v>11</v>
       </c>
@@ -4116,7 +4602,7 @@
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
@@ -4138,22 +4624,22 @@
       <c r="AB60" s="12"/>
       <c r="AC60" s="12"/>
     </row>
-    <row r="61" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+    <row r="61" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A61" s="40"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
       <c r="E61" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
@@ -4175,21 +4661,21 @@
       <c r="AB61" s="12"/>
       <c r="AC61" s="12"/>
     </row>
-    <row r="62" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="41" t="s">
+    <row r="62" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A62" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="22" t="s">
+      <c r="B62" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="35" t="s">
-        <v>119</v>
+      <c r="E62" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>1</v>
@@ -4200,7 +4686,7 @@
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
@@ -4222,12 +4708,12 @@
       <c r="AB62" s="12"/>
       <c r="AC62" s="12"/>
     </row>
-    <row r="63" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="35"/>
+    <row r="63" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A63" s="22"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="23"/>
       <c r="F63" s="14" t="s">
         <v>95</v>
       </c>
@@ -4237,7 +4723,7 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
@@ -4259,16 +4745,16 @@
       <c r="AB63" s="12"/>
       <c r="AC63" s="12"/>
     </row>
-    <row r="64" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="35" t="s">
+    <row r="64" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A64" s="22"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="23" t="s">
         <v>68</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>30</v>
@@ -4276,7 +4762,7 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K64" s="11"/>
       <c r="L64" s="11" t="s">
@@ -4300,22 +4786,22 @@
       <c r="AB64" s="12"/>
       <c r="AC64" s="12"/>
     </row>
-    <row r="65" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="35"/>
+    <row r="65" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A65" s="22"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="23"/>
       <c r="F65" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
@@ -4337,14 +4823,14 @@
       <c r="AB65" s="12"/>
       <c r="AC65" s="12"/>
     </row>
-    <row r="66" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="41"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="35"/>
+    <row r="66" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A66" s="22"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="23"/>
       <c r="F66" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>30</v>
@@ -4352,7 +4838,7 @@
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
@@ -4374,14 +4860,14 @@
       <c r="AB66" s="12"/>
       <c r="AC66" s="12"/>
     </row>
-    <row r="67" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="35"/>
+    <row r="67" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A67" s="22"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="23"/>
       <c r="F67" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>30</v>
@@ -4389,7 +4875,7 @@
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
@@ -4411,18 +4897,18 @@
       <c r="AB67" s="12"/>
       <c r="AC67" s="12"/>
     </row>
-    <row r="68" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22" t="s">
+    <row r="68" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A68" s="22"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>30</v>
@@ -4430,7 +4916,7 @@
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
@@ -4452,12 +4938,12 @@
       <c r="AB68" s="12"/>
       <c r="AC68" s="12"/>
     </row>
-    <row r="69" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="41"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="35" t="s">
+    <row r="69" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A69" s="22"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="23" t="s">
         <v>76</v>
       </c>
       <c r="F69" s="14" t="s">
@@ -4469,7 +4955,7 @@
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
@@ -4491,14 +4977,14 @@
       <c r="AB69" s="12"/>
       <c r="AC69" s="12"/>
     </row>
-    <row r="70" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="35"/>
+    <row r="70" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A70" s="22"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>30</v>
@@ -4506,7 +4992,7 @@
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
@@ -4528,12 +5014,12 @@
       <c r="AB70" s="12"/>
       <c r="AC70" s="12"/>
     </row>
-    <row r="71" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="35"/>
+    <row r="71" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A71" s="22"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="14" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +5029,7 @@
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K71" s="11"/>
       <c r="L71" s="11" t="s">
@@ -4567,16 +5053,16 @@
       <c r="AB71" s="12"/>
       <c r="AC71" s="12"/>
     </row>
-    <row r="72" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="41"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="35" t="s">
-        <v>140</v>
+    <row r="72" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A72" s="22"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>30</v>
@@ -4584,7 +5070,7 @@
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
@@ -4606,14 +5092,14 @@
       <c r="AB72" s="12"/>
       <c r="AC72" s="12"/>
     </row>
-    <row r="73" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="41"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="35"/>
+    <row r="73" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A73" s="22"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>30</v>
@@ -4621,7 +5107,7 @@
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
@@ -4643,16 +5129,16 @@
       <c r="AB73" s="12"/>
       <c r="AC73" s="12"/>
     </row>
-    <row r="74" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="41"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+    <row r="74" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A74" s="22"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="13" t="s">
         <v>81</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>30</v>
@@ -4660,7 +5146,7 @@
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
@@ -4682,16 +5168,16 @@
       <c r="AB74" s="12"/>
       <c r="AC74" s="12"/>
     </row>
-    <row r="75" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
+    <row r="75" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A75" s="22"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G75" s="12" t="s">
         <v>30</v>
@@ -4699,7 +5185,7 @@
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
@@ -4721,18 +5207,18 @@
       <c r="AB75" s="12"/>
       <c r="AC75" s="12"/>
     </row>
-    <row r="76" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22" t="s">
-        <v>129</v>
+    <row r="76" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A76" s="22"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>87</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>30</v>
@@ -4740,7 +5226,7 @@
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
@@ -4762,13 +5248,13 @@
       <c r="AB76" s="12"/>
       <c r="AC76" s="12"/>
     </row>
-    <row r="77" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="35" t="s">
-        <v>129</v>
+    <row r="77" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A77" s="22"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>94</v>
@@ -4779,7 +5265,7 @@
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
@@ -4801,12 +5287,12 @@
       <c r="AB77" s="12"/>
       <c r="AC77" s="12"/>
     </row>
-    <row r="78" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="41"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="35"/>
+    <row r="78" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A78" s="22"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="23"/>
       <c r="F78" s="14" t="s">
         <v>104</v>
       </c>
@@ -4816,7 +5302,7 @@
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
@@ -4838,20 +5324,22 @@
       <c r="AB78" s="12"/>
       <c r="AC78" s="12"/>
     </row>
-    <row r="79" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="41"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="35"/>
+    <row r="79" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A79" s="22"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="23"/>
       <c r="F79" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G79" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
@@ -4873,25 +5361,29 @@
       <c r="AB79" s="12"/>
       <c r="AC79" s="12"/>
     </row>
-    <row r="80" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="41"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+    <row r="80" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A80" s="22"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G80" s="12"/>
+        <v>179</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
+      <c r="L80" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
@@ -4910,24 +5402,26 @@
       <c r="AB80" s="12"/>
       <c r="AC80" s="12"/>
     </row>
-    <row r="81" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="41"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22" t="s">
+    <row r="81" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A81" s="22"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20" t="s">
         <v>75</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G81" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
@@ -4949,22 +5443,24 @@
       <c r="AB81" s="12"/>
       <c r="AC81" s="12"/>
     </row>
-    <row r="82" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="41"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="35" t="s">
-        <v>113</v>
+    <row r="82" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A82" s="22"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G82" s="12"/>
+        <v>168</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
@@ -4986,20 +5482,22 @@
       <c r="AB82" s="12"/>
       <c r="AC82" s="12"/>
     </row>
-    <row r="83" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="41"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="35"/>
+    <row r="83" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A83" s="22"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="23"/>
       <c r="F83" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G83" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
       <c r="J83" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
@@ -5021,24 +5519,26 @@
       <c r="AB83" s="12"/>
       <c r="AC83" s="12"/>
     </row>
-    <row r="84" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="41"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22" t="s">
+    <row r="84" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A84" s="22"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="E84" s="23" t="s">
         <v>80</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G84" s="12"/>
+        <v>156</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
@@ -5060,20 +5560,22 @@
       <c r="AB84" s="12"/>
       <c r="AC84" s="12"/>
     </row>
-    <row r="85" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="41"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="35"/>
+    <row r="85" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A85" s="22"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="G85" s="12"/>
+        <v>183</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
       <c r="J85" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
@@ -5095,24 +5597,26 @@
       <c r="AB85" s="12"/>
       <c r="AC85" s="12"/>
     </row>
-    <row r="86" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="41"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22" t="s">
-        <v>137</v>
+    <row r="86" spans="1:29" s="2" customFormat="1" ht="13.5">
+      <c r="A86" s="22"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G86" s="11"/>
+        <v>125</v>
+      </c>
+      <c r="F86" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
       <c r="J86" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
@@ -5134,22 +5638,24 @@
       <c r="AB86" s="12"/>
       <c r="AC86" s="12"/>
     </row>
-    <row r="87" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="41"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+    <row r="87" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A87" s="22"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="11"/>
+      <c r="G87" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
@@ -5171,22 +5677,24 @@
       <c r="AB87" s="12"/>
       <c r="AC87" s="12"/>
     </row>
-    <row r="88" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="41"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="35" t="s">
+    <row r="88" spans="1:29" s="2" customFormat="1" ht="13.5">
+      <c r="A88" s="22"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F88" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G88" s="12"/>
+      <c r="F88" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
@@ -5208,20 +5716,22 @@
       <c r="AB88" s="12"/>
       <c r="AC88" s="12"/>
     </row>
-    <row r="89" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="41"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="35"/>
+    <row r="89" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A89" s="22"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="23"/>
       <c r="F89" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G89" s="12"/>
+        <v>178</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
@@ -5243,22 +5753,24 @@
       <c r="AB89" s="12"/>
       <c r="AC89" s="12"/>
     </row>
-    <row r="90" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="41"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
+    <row r="90" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A90" s="22"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
       <c r="E90" s="13" t="s">
         <v>86</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G90" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
       <c r="J90" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
@@ -5280,22 +5792,24 @@
       <c r="AB90" s="12"/>
       <c r="AC90" s="12"/>
     </row>
-    <row r="91" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="41"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="35" t="s">
+    <row r="91" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A91" s="22"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="G91" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
       <c r="J91" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K91" s="11"/>
       <c r="L91" s="11"/>
@@ -5317,20 +5831,22 @@
       <c r="AB91" s="12"/>
       <c r="AC91" s="12"/>
     </row>
-    <row r="92" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="41"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="35"/>
+    <row r="92" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A92" s="22"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="23"/>
       <c r="F92" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G92" s="12"/>
+        <v>164</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K92" s="11"/>
       <c r="L92" s="11"/>
@@ -5352,20 +5868,22 @@
       <c r="AB92" s="12"/>
       <c r="AC92" s="12"/>
     </row>
-    <row r="93" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="41"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="35"/>
+    <row r="93" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A93" s="22"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="23"/>
       <c r="F93" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G93" s="12"/>
+        <v>186</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
       <c r="J93" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
@@ -5387,24 +5905,26 @@
       <c r="AB93" s="12"/>
       <c r="AC93" s="12"/>
     </row>
-    <row r="94" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="41"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22" t="s">
-        <v>127</v>
+    <row r="94" spans="1:29" s="2" customFormat="1" ht="13.5">
+      <c r="A94" s="22"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
       <c r="J94" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
@@ -5426,22 +5946,24 @@
       <c r="AB94" s="12"/>
       <c r="AC94" s="12"/>
     </row>
-    <row r="95" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="41"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+    <row r="95" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A95" s="22"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
       <c r="E95" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F95" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G95" s="12"/>
+      <c r="G95" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
       <c r="J95" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
@@ -5463,22 +5985,24 @@
       <c r="AB95" s="12"/>
       <c r="AC95" s="12"/>
     </row>
-    <row r="96" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="41"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="35" t="s">
-        <v>128</v>
+    <row r="96" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A96" s="22"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G96" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
       <c r="J96" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
@@ -5500,20 +6024,22 @@
       <c r="AB96" s="12"/>
       <c r="AC96" s="12"/>
     </row>
-    <row r="97" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="41"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="35"/>
+    <row r="97" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A97" s="22"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="23"/>
       <c r="F97" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="G97" s="12"/>
+        <v>193</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
       <c r="J97" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
@@ -5535,20 +6061,22 @@
       <c r="AB97" s="12"/>
       <c r="AC97" s="12"/>
     </row>
-    <row r="98" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="41"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="35"/>
+    <row r="98" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A98" s="22"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="23"/>
       <c r="F98" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G98" s="12"/>
+        <v>162</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
       <c r="J98" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K98" s="11"/>
       <c r="L98" s="11"/>
@@ -5570,20 +6098,22 @@
       <c r="AB98" s="12"/>
       <c r="AC98" s="12"/>
     </row>
-    <row r="99" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="41"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="35"/>
+    <row r="99" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A99" s="22"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="23"/>
       <c r="F99" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G99" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
@@ -5605,20 +6135,22 @@
       <c r="AB99" s="12"/>
       <c r="AC99" s="12"/>
     </row>
-    <row r="100" spans="1:29" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="41"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="35"/>
+    <row r="100" spans="1:29" s="2" customFormat="1" ht="12.75">
+      <c r="A100" s="22"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="23"/>
       <c r="F100" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G100" s="12"/>
+      <c r="G100" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
       <c r="J100" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
@@ -5640,7 +6172,7 @@
       <c r="AB100" s="12"/>
       <c r="AC100" s="12"/>
     </row>
-    <row r="101" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" ht="12.75">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5671,7 +6203,7 @@
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
     </row>
-    <row r="102" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="12.75">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5702,7 +6234,7 @@
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
     </row>
-    <row r="103" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" ht="12.75">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5733,7 +6265,7 @@
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
     </row>
-    <row r="104" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="12.75">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5764,7 +6296,7 @@
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
     </row>
-    <row r="105" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" ht="12.75">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5795,7 +6327,7 @@
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
     </row>
-    <row r="106" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" ht="12.75">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5826,7 +6358,7 @@
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
     </row>
-    <row r="107" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" ht="12.75">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5857,7 +6389,7 @@
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
     </row>
-    <row r="108" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" ht="12.75">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5888,7 +6420,7 @@
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
     </row>
-    <row r="109" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" ht="12.75">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5919,7 +6451,7 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
     </row>
-    <row r="110" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" ht="12.75">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5950,7 +6482,7 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
     </row>
-    <row r="111" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="12.75">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5981,7 +6513,7 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
     </row>
-    <row r="112" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="12.75">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6012,7 +6544,7 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
     </row>
-    <row r="113" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" ht="12.75">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6043,7 +6575,7 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
     </row>
-    <row r="114" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="12.75">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6074,7 +6606,7 @@
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
     </row>
-    <row r="115" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" ht="12.75">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6105,7 +6637,7 @@
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
     </row>
-    <row r="116" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" ht="12.75">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6136,7 +6668,7 @@
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
     </row>
-    <row r="117" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" ht="12.75">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6167,7 +6699,7 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
     </row>
-    <row r="118" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="12.75">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6198,7 +6730,7 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
     </row>
-    <row r="119" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="12.75">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6229,7 +6761,7 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
     </row>
-    <row r="120" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="12.75">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6260,7 +6792,7 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
     </row>
-    <row r="121" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="12.75">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6291,7 +6823,7 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
     </row>
-    <row r="122" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" ht="12.75">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6322,7 +6854,7 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
     </row>
-    <row r="123" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" ht="12.75">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6353,7 +6885,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
     </row>
-    <row r="124" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="12.75">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6384,7 +6916,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
     </row>
-    <row r="125" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" ht="12.75">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6415,7 +6947,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
     </row>
-    <row r="126" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="12.75">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6446,7 +6978,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
     </row>
-    <row r="127" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" ht="12.75">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6477,7 +7009,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
     </row>
-    <row r="128" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" ht="12.75">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6508,7 +7040,7 @@
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
     </row>
-    <row r="129" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" ht="12.75">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6539,7 +7071,7 @@
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
     </row>
-    <row r="130" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" ht="12.75">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6570,7 +7102,7 @@
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
     </row>
-    <row r="131" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" ht="12.75">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6601,7 +7133,7 @@
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
     </row>
-    <row r="132" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" ht="12.75">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6632,7 +7164,7 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
     </row>
-    <row r="133" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" ht="12.75">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6663,7 +7195,7 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
     </row>
-    <row r="134" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" ht="12.75">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -6694,7 +7226,7 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
     </row>
-    <row r="135" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" ht="12.75">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -6725,7 +7257,7 @@
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
     </row>
-    <row r="136" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" ht="12.75">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -6756,7 +7288,7 @@
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
     </row>
-    <row r="137" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" ht="12.75">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -6787,7 +7319,7 @@
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
     </row>
-    <row r="138" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" ht="12.75">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -6818,7 +7350,7 @@
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
     </row>
-    <row r="139" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" ht="12.75">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -6849,7 +7381,7 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
     </row>
-    <row r="140" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" ht="12.75">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -6880,7 +7412,7 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
     </row>
-    <row r="141" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" ht="12.75">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -6911,7 +7443,7 @@
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
     </row>
-    <row r="142" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" ht="12.75">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -6942,7 +7474,7 @@
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
     </row>
-    <row r="143" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" ht="12.75">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -6973,7 +7505,7 @@
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
     </row>
-    <row r="144" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" ht="12.75">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7004,7 +7536,7 @@
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
     </row>
-    <row r="145" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="12.75">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -7035,7 +7567,7 @@
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
     </row>
-    <row r="146" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="12.75">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -7066,7 +7598,7 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
     </row>
-    <row r="147" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="12.75">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -7097,7 +7629,7 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
     </row>
-    <row r="148" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="12.75">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -7128,7 +7660,7 @@
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
     </row>
-    <row r="149" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="12.75">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -7159,7 +7691,7 @@
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
     </row>
-    <row r="150" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="12.75">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -7190,7 +7722,7 @@
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
     </row>
-    <row r="151" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="12.75">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -7221,7 +7753,7 @@
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
     </row>
-    <row r="152" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="12.75">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -7252,7 +7784,7 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
     </row>
-    <row r="153" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="12.75">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -7283,7 +7815,7 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
     </row>
-    <row r="154" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="12.75">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -7314,7 +7846,7 @@
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
     </row>
-    <row r="155" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" ht="12.75">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -7345,7 +7877,7 @@
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
     </row>
-    <row r="156" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" ht="12.75">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -7376,7 +7908,7 @@
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
     </row>
-    <row r="157" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" ht="12.75">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -7407,7 +7939,7 @@
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
     </row>
-    <row r="158" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" ht="12.75">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -7438,7 +7970,7 @@
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
     </row>
-    <row r="159" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" ht="12.75">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -7469,7 +8001,7 @@
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
     </row>
-    <row r="160" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" ht="12.75">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -7500,7 +8032,7 @@
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
     </row>
-    <row r="161" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" ht="12.75">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -7531,7 +8063,7 @@
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
     </row>
-    <row r="162" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" ht="12.75">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -7562,7 +8094,7 @@
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
     </row>
-    <row r="163" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" ht="12.75">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -7593,7 +8125,7 @@
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
     </row>
-    <row r="164" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="12.75">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -7624,7 +8156,7 @@
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
     </row>
-    <row r="165" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" ht="12.75">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -7655,7 +8187,7 @@
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
     </row>
-    <row r="166" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" ht="12.75">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -7686,7 +8218,7 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
     </row>
-    <row r="167" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="12.75">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -7717,7 +8249,7 @@
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
     </row>
-    <row r="168" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" ht="12.75">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -7748,7 +8280,7 @@
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
     </row>
-    <row r="169" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" ht="12.75">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -7779,7 +8311,7 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
     </row>
-    <row r="170" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" ht="12.75">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -7810,7 +8342,7 @@
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
     </row>
-    <row r="171" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" ht="12.75">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -7841,7 +8373,7 @@
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
     </row>
-    <row r="172" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" ht="12.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -7872,7 +8404,7 @@
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
     </row>
-    <row r="173" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" ht="12.75">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -7903,7 +8435,7 @@
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
     </row>
-    <row r="174" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" ht="12.75">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -7934,7 +8466,7 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
     </row>
-    <row r="175" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" ht="12.75">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -7965,7 +8497,7 @@
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
     </row>
-    <row r="176" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" ht="12.75">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -7996,7 +8528,7 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
     </row>
-    <row r="177" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="12.75">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -8027,7 +8559,7 @@
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
     </row>
-    <row r="178" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" ht="12.75">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -8058,7 +8590,7 @@
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
     </row>
-    <row r="179" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="12.75">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -8089,7 +8621,7 @@
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
     </row>
-    <row r="180" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="12.75">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -8120,7 +8652,7 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
     </row>
-    <row r="181" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="12.75">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -8151,7 +8683,7 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
     </row>
-    <row r="182" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="12.75">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -8182,7 +8714,7 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
     </row>
-    <row r="183" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" ht="12.75">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -8213,7 +8745,7 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
     </row>
-    <row r="184" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" ht="12.75">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -8244,7 +8776,7 @@
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
     </row>
-    <row r="185" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" ht="12.75">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -8275,7 +8807,7 @@
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
     </row>
-    <row r="186" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" ht="12.75">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -8306,7 +8838,7 @@
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
     </row>
-    <row r="187" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" ht="12.75">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -8337,7 +8869,7 @@
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
     </row>
-    <row r="188" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" ht="12.75">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -8368,7 +8900,7 @@
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
     </row>
-    <row r="189" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" ht="12.75">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -8399,7 +8931,7 @@
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
     </row>
-    <row r="190" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" ht="12.75">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -8430,7 +8962,7 @@
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
     </row>
-    <row r="191" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="12.75">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -8461,7 +8993,7 @@
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
     </row>
-    <row r="192" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="12.75">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -8492,7 +9024,7 @@
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
     </row>
-    <row r="193" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" ht="12.75">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -8523,7 +9055,7 @@
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
     </row>
-    <row r="194" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" ht="12.75">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -8554,7 +9086,7 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
     </row>
-    <row r="195" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" ht="12.75">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -8585,7 +9117,7 @@
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
     </row>
-    <row r="196" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" ht="12.75">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -8616,7 +9148,7 @@
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
     </row>
-    <row r="197" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" ht="12.75">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -8647,7 +9179,7 @@
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
     </row>
-    <row r="198" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" ht="12.75">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -8678,7 +9210,7 @@
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
     </row>
-    <row r="199" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" ht="12.75">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -8709,7 +9241,7 @@
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
     </row>
-    <row r="200" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" ht="12.75">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -8740,7 +9272,7 @@
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
     </row>
-    <row r="201" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" ht="12.75">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -8771,7 +9303,7 @@
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
     </row>
-    <row r="202" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" ht="12.75">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -8802,7 +9334,7 @@
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
     </row>
-    <row r="203" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" ht="12.75">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -8833,7 +9365,7 @@
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
     </row>
-    <row r="204" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" ht="12.75">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -8864,7 +9396,7 @@
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
     </row>
-    <row r="205" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" ht="12.75">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -8895,7 +9427,7 @@
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
     </row>
-    <row r="206" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" ht="12.75">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -8926,7 +9458,7 @@
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
     </row>
-    <row r="207" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" ht="12.75">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -8957,7 +9489,7 @@
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
     </row>
-    <row r="208" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" ht="12.75">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -8988,7 +9520,7 @@
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
     </row>
-    <row r="209" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" ht="12.75">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -9019,7 +9551,7 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
     </row>
-    <row r="210" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" ht="12.75">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -9050,7 +9582,7 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
     </row>
-    <row r="211" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" ht="12.75">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -9081,7 +9613,7 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
     </row>
-    <row r="212" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" ht="12.75">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -9112,7 +9644,7 @@
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
     </row>
-    <row r="213" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" ht="12.75">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -9143,7 +9675,7 @@
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
     </row>
-    <row r="214" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" ht="12.75">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -9174,7 +9706,7 @@
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
     </row>
-    <row r="215" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" ht="12.75">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -9205,7 +9737,7 @@
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
     </row>
-    <row r="216" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="12.75">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -9236,7 +9768,7 @@
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
     </row>
-    <row r="217" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="12.75">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -9267,7 +9799,7 @@
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
     </row>
-    <row r="218" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="12.75">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -9298,7 +9830,7 @@
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
     </row>
-    <row r="219" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="12.75">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -9329,7 +9861,7 @@
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
     </row>
-    <row r="220" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="12.75">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -9360,7 +9892,7 @@
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
     </row>
-    <row r="221" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" ht="12.75">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -9391,7 +9923,7 @@
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
     </row>
-    <row r="222" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="12.75">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -9422,7 +9954,7 @@
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
     </row>
-    <row r="223" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="12.75">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -9453,7 +9985,7 @@
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
     </row>
-    <row r="224" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="12.75">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -9484,7 +10016,7 @@
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
     </row>
-    <row r="225" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="12.75">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -9515,7 +10047,7 @@
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
     </row>
-    <row r="226" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="12.75">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -9546,7 +10078,7 @@
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
     </row>
-    <row r="227" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" ht="12.75">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -9577,7 +10109,7 @@
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
     </row>
-    <row r="228" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="12.75">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -9608,7 +10140,7 @@
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
     </row>
-    <row r="229" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="12.75">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -9639,7 +10171,7 @@
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
     </row>
-    <row r="230" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" ht="12.75">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -9670,7 +10202,7 @@
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
     </row>
-    <row r="231" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="12.75">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -9701,7 +10233,7 @@
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
     </row>
-    <row r="232" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" ht="12.75">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -9732,7 +10264,7 @@
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
     </row>
-    <row r="233" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" ht="12.75">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -9763,7 +10295,7 @@
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
     </row>
-    <row r="234" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" ht="12.75">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -9794,7 +10326,7 @@
       <c r="AB234" s="3"/>
       <c r="AC234" s="3"/>
     </row>
-    <row r="235" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" ht="12.75">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -9825,7 +10357,7 @@
       <c r="AB235" s="3"/>
       <c r="AC235" s="3"/>
     </row>
-    <row r="236" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="12.75">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -9856,7 +10388,7 @@
       <c r="AB236" s="3"/>
       <c r="AC236" s="3"/>
     </row>
-    <row r="237" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="12.75">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -9887,7 +10419,7 @@
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
     </row>
-    <row r="238" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="12.75">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -9918,7 +10450,7 @@
       <c r="AB238" s="3"/>
       <c r="AC238" s="3"/>
     </row>
-    <row r="239" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="12.75">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -9949,7 +10481,7 @@
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
     </row>
-    <row r="240" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="12.75">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -9980,7 +10512,7 @@
       <c r="AB240" s="3"/>
       <c r="AC240" s="3"/>
     </row>
-    <row r="241" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" ht="12.75">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -10011,7 +10543,7 @@
       <c r="AB241" s="3"/>
       <c r="AC241" s="3"/>
     </row>
-    <row r="242" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" ht="12.75">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -10042,7 +10574,7 @@
       <c r="AB242" s="3"/>
       <c r="AC242" s="3"/>
     </row>
-    <row r="243" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" ht="12.75">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -10073,7 +10605,7 @@
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
     </row>
-    <row r="244" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" ht="12.75">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -10104,7 +10636,7 @@
       <c r="AB244" s="3"/>
       <c r="AC244" s="3"/>
     </row>
-    <row r="245" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" ht="12.75">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -10135,7 +10667,7 @@
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
     </row>
-    <row r="246" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" ht="12.75">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -10166,7 +10698,7 @@
       <c r="AB246" s="3"/>
       <c r="AC246" s="3"/>
     </row>
-    <row r="247" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" ht="12.75">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -10197,7 +10729,7 @@
       <c r="AB247" s="3"/>
       <c r="AC247" s="3"/>
     </row>
-    <row r="248" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" ht="12.75">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -10228,7 +10760,7 @@
       <c r="AB248" s="3"/>
       <c r="AC248" s="3"/>
     </row>
-    <row r="249" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" ht="12.75">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -10259,7 +10791,7 @@
       <c r="AB249" s="3"/>
       <c r="AC249" s="3"/>
     </row>
-    <row r="250" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" ht="12.75">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -10290,7 +10822,7 @@
       <c r="AB250" s="3"/>
       <c r="AC250" s="3"/>
     </row>
-    <row r="251" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" ht="12.75">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -10321,7 +10853,7 @@
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
     </row>
-    <row r="252" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" ht="12.75">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -10352,7 +10884,7 @@
       <c r="AB252" s="3"/>
       <c r="AC252" s="3"/>
     </row>
-    <row r="253" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" ht="12.75">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -10383,7 +10915,7 @@
       <c r="AB253" s="3"/>
       <c r="AC253" s="3"/>
     </row>
-    <row r="254" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" ht="12.75">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -10414,7 +10946,7 @@
       <c r="AB254" s="3"/>
       <c r="AC254" s="3"/>
     </row>
-    <row r="255" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" ht="12.75">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -10445,7 +10977,7 @@
       <c r="AB255" s="3"/>
       <c r="AC255" s="3"/>
     </row>
-    <row r="256" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" ht="12.75">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -10476,7 +11008,7 @@
       <c r="AB256" s="3"/>
       <c r="AC256" s="3"/>
     </row>
-    <row r="257" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" ht="12.75">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -10507,7 +11039,7 @@
       <c r="AB257" s="3"/>
       <c r="AC257" s="3"/>
     </row>
-    <row r="258" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" ht="12.75">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -10538,7 +11070,7 @@
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
     </row>
-    <row r="259" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" ht="12.75">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -10569,7 +11101,7 @@
       <c r="AB259" s="3"/>
       <c r="AC259" s="3"/>
     </row>
-    <row r="260" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" ht="12.75">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -10600,7 +11132,7 @@
       <c r="AB260" s="3"/>
       <c r="AC260" s="3"/>
     </row>
-    <row r="261" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" ht="12.75">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -10631,7 +11163,7 @@
       <c r="AB261" s="3"/>
       <c r="AC261" s="3"/>
     </row>
-    <row r="262" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" ht="12.75">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -10662,7 +11194,7 @@
       <c r="AB262" s="3"/>
       <c r="AC262" s="3"/>
     </row>
-    <row r="263" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" ht="12.75">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -10693,7 +11225,7 @@
       <c r="AB263" s="3"/>
       <c r="AC263" s="3"/>
     </row>
-    <row r="264" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" ht="12.75">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -10724,7 +11256,7 @@
       <c r="AB264" s="3"/>
       <c r="AC264" s="3"/>
     </row>
-    <row r="265" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" ht="12.75">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -10755,7 +11287,7 @@
       <c r="AB265" s="3"/>
       <c r="AC265" s="3"/>
     </row>
-    <row r="266" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" ht="12.75">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -10786,7 +11318,7 @@
       <c r="AB266" s="3"/>
       <c r="AC266" s="3"/>
     </row>
-    <row r="267" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" ht="12.75">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -10817,7 +11349,7 @@
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
     </row>
-    <row r="268" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" ht="12.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -10848,7 +11380,7 @@
       <c r="AB268" s="3"/>
       <c r="AC268" s="3"/>
     </row>
-    <row r="269" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" ht="12.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -10879,7 +11411,7 @@
       <c r="AB269" s="3"/>
       <c r="AC269" s="3"/>
     </row>
-    <row r="270" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" ht="12.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -10910,7 +11442,7 @@
       <c r="AB270" s="3"/>
       <c r="AC270" s="3"/>
     </row>
-    <row r="271" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" ht="12.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -10941,7 +11473,7 @@
       <c r="AB271" s="3"/>
       <c r="AC271" s="3"/>
     </row>
-    <row r="272" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" ht="12.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -10972,7 +11504,7 @@
       <c r="AB272" s="3"/>
       <c r="AC272" s="3"/>
     </row>
-    <row r="273" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" ht="12.75">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -11003,7 +11535,7 @@
       <c r="AB273" s="3"/>
       <c r="AC273" s="3"/>
     </row>
-    <row r="274" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" ht="12.75">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -11034,7 +11566,7 @@
       <c r="AB274" s="3"/>
       <c r="AC274" s="3"/>
     </row>
-    <row r="275" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" ht="12.75">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -11065,7 +11597,7 @@
       <c r="AB275" s="3"/>
       <c r="AC275" s="3"/>
     </row>
-    <row r="276" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" ht="12.75">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -11096,7 +11628,7 @@
       <c r="AB276" s="3"/>
       <c r="AC276" s="3"/>
     </row>
-    <row r="277" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" ht="12.75">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -11127,7 +11659,7 @@
       <c r="AB277" s="3"/>
       <c r="AC277" s="3"/>
     </row>
-    <row r="278" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" ht="12.75">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -11158,7 +11690,7 @@
       <c r="AB278" s="3"/>
       <c r="AC278" s="3"/>
     </row>
-    <row r="279" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" ht="12.75">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -11189,7 +11721,7 @@
       <c r="AB279" s="3"/>
       <c r="AC279" s="3"/>
     </row>
-    <row r="280" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" ht="12.75">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -11220,7 +11752,7 @@
       <c r="AB280" s="3"/>
       <c r="AC280" s="3"/>
     </row>
-    <row r="281" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" ht="12.75">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -11251,7 +11783,7 @@
       <c r="AB281" s="3"/>
       <c r="AC281" s="3"/>
     </row>
-    <row r="282" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" ht="12.75">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -11282,7 +11814,7 @@
       <c r="AB282" s="3"/>
       <c r="AC282" s="3"/>
     </row>
-    <row r="283" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" ht="12.75">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -11313,7 +11845,7 @@
       <c r="AB283" s="3"/>
       <c r="AC283" s="3"/>
     </row>
-    <row r="284" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" ht="12.75">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -11344,7 +11876,7 @@
       <c r="AB284" s="3"/>
       <c r="AC284" s="3"/>
     </row>
-    <row r="285" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" ht="12.75">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -11375,7 +11907,7 @@
       <c r="AB285" s="3"/>
       <c r="AC285" s="3"/>
     </row>
-    <row r="286" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" ht="12.75">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -11406,7 +11938,7 @@
       <c r="AB286" s="3"/>
       <c r="AC286" s="3"/>
     </row>
-    <row r="287" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" ht="12.75">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -11437,7 +11969,7 @@
       <c r="AB287" s="3"/>
       <c r="AC287" s="3"/>
     </row>
-    <row r="288" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" ht="12.75">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -11468,7 +12000,7 @@
       <c r="AB288" s="3"/>
       <c r="AC288" s="3"/>
     </row>
-    <row r="289" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" ht="12.75">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -11499,7 +12031,7 @@
       <c r="AB289" s="3"/>
       <c r="AC289" s="3"/>
     </row>
-    <row r="290" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" ht="12.75">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -11530,7 +12062,7 @@
       <c r="AB290" s="3"/>
       <c r="AC290" s="3"/>
     </row>
-    <row r="291" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" ht="12.75">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -11561,7 +12093,7 @@
       <c r="AB291" s="3"/>
       <c r="AC291" s="3"/>
     </row>
-    <row r="292" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" ht="12.75">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -11592,7 +12124,7 @@
       <c r="AB292" s="3"/>
       <c r="AC292" s="3"/>
     </row>
-    <row r="293" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" ht="12.75">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -11623,7 +12155,7 @@
       <c r="AB293" s="3"/>
       <c r="AC293" s="3"/>
     </row>
-    <row r="294" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" ht="12.75">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -11654,7 +12186,7 @@
       <c r="AB294" s="3"/>
       <c r="AC294" s="3"/>
     </row>
-    <row r="295" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" ht="12.75">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -11685,7 +12217,7 @@
       <c r="AB295" s="3"/>
       <c r="AC295" s="3"/>
     </row>
-    <row r="296" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" ht="12.75">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -11716,7 +12248,7 @@
       <c r="AB296" s="3"/>
       <c r="AC296" s="3"/>
     </row>
-    <row r="297" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" ht="12.75">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -11747,7 +12279,7 @@
       <c r="AB297" s="3"/>
       <c r="AC297" s="3"/>
     </row>
-    <row r="298" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" ht="12.75">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -11778,7 +12310,7 @@
       <c r="AB298" s="3"/>
       <c r="AC298" s="3"/>
     </row>
-    <row r="299" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" ht="12.75">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -11809,7 +12341,7 @@
       <c r="AB299" s="3"/>
       <c r="AC299" s="3"/>
     </row>
-    <row r="300" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" ht="12.75">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -11840,7 +12372,7 @@
       <c r="AB300" s="3"/>
       <c r="AC300" s="3"/>
     </row>
-    <row r="301" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" ht="12.75">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -11871,7 +12403,7 @@
       <c r="AB301" s="3"/>
       <c r="AC301" s="3"/>
     </row>
-    <row r="302" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" ht="12.75">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -11902,7 +12434,7 @@
       <c r="AB302" s="3"/>
       <c r="AC302" s="3"/>
     </row>
-    <row r="303" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" ht="12.75">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -11933,7 +12465,7 @@
       <c r="AB303" s="3"/>
       <c r="AC303" s="3"/>
     </row>
-    <row r="304" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" ht="12.75">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -11964,7 +12496,7 @@
       <c r="AB304" s="3"/>
       <c r="AC304" s="3"/>
     </row>
-    <row r="305" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" ht="12.75">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -11995,7 +12527,7 @@
       <c r="AB305" s="3"/>
       <c r="AC305" s="3"/>
     </row>
-    <row r="306" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" ht="12.75">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -12026,7 +12558,7 @@
       <c r="AB306" s="3"/>
       <c r="AC306" s="3"/>
     </row>
-    <row r="307" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" ht="12.75">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -12057,7 +12589,7 @@
       <c r="AB307" s="3"/>
       <c r="AC307" s="3"/>
     </row>
-    <row r="308" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" ht="12.75">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -12088,7 +12620,7 @@
       <c r="AB308" s="3"/>
       <c r="AC308" s="3"/>
     </row>
-    <row r="309" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" ht="12.75">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -12119,7 +12651,7 @@
       <c r="AB309" s="3"/>
       <c r="AC309" s="3"/>
     </row>
-    <row r="310" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" ht="12.75">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -12150,7 +12682,7 @@
       <c r="AB310" s="3"/>
       <c r="AC310" s="3"/>
     </row>
-    <row r="311" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" ht="12.75">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -12181,7 +12713,7 @@
       <c r="AB311" s="3"/>
       <c r="AC311" s="3"/>
     </row>
-    <row r="312" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" ht="12.75">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -12212,7 +12744,7 @@
       <c r="AB312" s="3"/>
       <c r="AC312" s="3"/>
     </row>
-    <row r="313" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" ht="12.75">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -12243,7 +12775,7 @@
       <c r="AB313" s="3"/>
       <c r="AC313" s="3"/>
     </row>
-    <row r="314" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29" ht="12.75">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -12274,7 +12806,7 @@
       <c r="AB314" s="3"/>
       <c r="AC314" s="3"/>
     </row>
-    <row r="315" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29" ht="12.75">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -12305,7 +12837,7 @@
       <c r="AB315" s="3"/>
       <c r="AC315" s="3"/>
     </row>
-    <row r="316" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" ht="12.75">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -12336,7 +12868,7 @@
       <c r="AB316" s="3"/>
       <c r="AC316" s="3"/>
     </row>
-    <row r="317" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29" ht="12.75">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -12367,7 +12899,7 @@
       <c r="AB317" s="3"/>
       <c r="AC317" s="3"/>
     </row>
-    <row r="318" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29" ht="12.75">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -12398,7 +12930,7 @@
       <c r="AB318" s="3"/>
       <c r="AC318" s="3"/>
     </row>
-    <row r="319" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29" ht="12.75">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -12429,7 +12961,7 @@
       <c r="AB319" s="3"/>
       <c r="AC319" s="3"/>
     </row>
-    <row r="320" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29" ht="12.75">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -12460,7 +12992,7 @@
       <c r="AB320" s="3"/>
       <c r="AC320" s="3"/>
     </row>
-    <row r="321" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:29" ht="12.75">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -12491,7 +13023,7 @@
       <c r="AB321" s="3"/>
       <c r="AC321" s="3"/>
     </row>
-    <row r="322" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:29" ht="12.75">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -12522,7 +13054,7 @@
       <c r="AB322" s="3"/>
       <c r="AC322" s="3"/>
     </row>
-    <row r="323" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:29" ht="12.75">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -12553,7 +13085,7 @@
       <c r="AB323" s="3"/>
       <c r="AC323" s="3"/>
     </row>
-    <row r="324" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:29" ht="12.75">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -12584,7 +13116,7 @@
       <c r="AB324" s="3"/>
       <c r="AC324" s="3"/>
     </row>
-    <row r="325" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:29" ht="12.75">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -12615,7 +13147,7 @@
       <c r="AB325" s="3"/>
       <c r="AC325" s="3"/>
     </row>
-    <row r="326" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:29" ht="12.75">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -12646,7 +13178,7 @@
       <c r="AB326" s="3"/>
       <c r="AC326" s="3"/>
     </row>
-    <row r="327" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29" ht="12.75">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -12677,7 +13209,7 @@
       <c r="AB327" s="3"/>
       <c r="AC327" s="3"/>
     </row>
-    <row r="328" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29" ht="12.75">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -12708,7 +13240,7 @@
       <c r="AB328" s="3"/>
       <c r="AC328" s="3"/>
     </row>
-    <row r="329" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29" ht="12.75">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -12739,7 +13271,7 @@
       <c r="AB329" s="3"/>
       <c r="AC329" s="3"/>
     </row>
-    <row r="330" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29" ht="12.75">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -12770,7 +13302,7 @@
       <c r="AB330" s="3"/>
       <c r="AC330" s="3"/>
     </row>
-    <row r="331" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29" ht="12.75">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -12801,7 +13333,7 @@
       <c r="AB331" s="3"/>
       <c r="AC331" s="3"/>
     </row>
-    <row r="332" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29" ht="12.75">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -12832,7 +13364,7 @@
       <c r="AB332" s="3"/>
       <c r="AC332" s="3"/>
     </row>
-    <row r="333" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29" ht="12.75">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -12863,7 +13395,7 @@
       <c r="AB333" s="3"/>
       <c r="AC333" s="3"/>
     </row>
-    <row r="334" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29" ht="12.75">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -12894,7 +13426,7 @@
       <c r="AB334" s="3"/>
       <c r="AC334" s="3"/>
     </row>
-    <row r="335" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29" ht="12.75">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -12925,7 +13457,7 @@
       <c r="AB335" s="3"/>
       <c r="AC335" s="3"/>
     </row>
-    <row r="336" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29" ht="12.75">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -12956,7 +13488,7 @@
       <c r="AB336" s="3"/>
       <c r="AC336" s="3"/>
     </row>
-    <row r="337" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29" ht="12.75">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -12987,7 +13519,7 @@
       <c r="AB337" s="3"/>
       <c r="AC337" s="3"/>
     </row>
-    <row r="338" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29" ht="12.75">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -13018,7 +13550,7 @@
       <c r="AB338" s="3"/>
       <c r="AC338" s="3"/>
     </row>
-    <row r="339" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29" ht="12.75">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -13049,7 +13581,7 @@
       <c r="AB339" s="3"/>
       <c r="AC339" s="3"/>
     </row>
-    <row r="340" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29" ht="12.75">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -13080,7 +13612,7 @@
       <c r="AB340" s="3"/>
       <c r="AC340" s="3"/>
     </row>
-    <row r="341" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" ht="12.75">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -13111,7 +13643,7 @@
       <c r="AB341" s="3"/>
       <c r="AC341" s="3"/>
     </row>
-    <row r="342" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29" ht="12.75">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -13142,7 +13674,7 @@
       <c r="AB342" s="3"/>
       <c r="AC342" s="3"/>
     </row>
-    <row r="343" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29" ht="12.75">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -13173,7 +13705,7 @@
       <c r="AB343" s="3"/>
       <c r="AC343" s="3"/>
     </row>
-    <row r="344" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29" ht="12.75">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -13204,7 +13736,7 @@
       <c r="AB344" s="3"/>
       <c r="AC344" s="3"/>
     </row>
-    <row r="345" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" ht="12.75">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -13235,7 +13767,7 @@
       <c r="AB345" s="3"/>
       <c r="AC345" s="3"/>
     </row>
-    <row r="346" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" ht="12.75">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -13266,7 +13798,7 @@
       <c r="AB346" s="3"/>
       <c r="AC346" s="3"/>
     </row>
-    <row r="347" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" ht="12.75">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -13297,7 +13829,7 @@
       <c r="AB347" s="3"/>
       <c r="AC347" s="3"/>
     </row>
-    <row r="348" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29" ht="12.75">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -13328,7 +13860,7 @@
       <c r="AB348" s="3"/>
       <c r="AC348" s="3"/>
     </row>
-    <row r="349" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29" ht="12.75">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -13359,7 +13891,7 @@
       <c r="AB349" s="3"/>
       <c r="AC349" s="3"/>
     </row>
-    <row r="350" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29" ht="12.75">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -13390,7 +13922,7 @@
       <c r="AB350" s="3"/>
       <c r="AC350" s="3"/>
     </row>
-    <row r="351" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29" ht="12.75">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -13421,7 +13953,7 @@
       <c r="AB351" s="3"/>
       <c r="AC351" s="3"/>
     </row>
-    <row r="352" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29" ht="12.75">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -13452,7 +13984,7 @@
       <c r="AB352" s="3"/>
       <c r="AC352" s="3"/>
     </row>
-    <row r="353" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" ht="12.75">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -13483,7 +14015,7 @@
       <c r="AB353" s="3"/>
       <c r="AC353" s="3"/>
     </row>
-    <row r="354" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" ht="12.75">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -13514,7 +14046,7 @@
       <c r="AB354" s="3"/>
       <c r="AC354" s="3"/>
     </row>
-    <row r="355" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" ht="12.75">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -13545,7 +14077,7 @@
       <c r="AB355" s="3"/>
       <c r="AC355" s="3"/>
     </row>
-    <row r="356" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" ht="12.75">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -13576,7 +14108,7 @@
       <c r="AB356" s="3"/>
       <c r="AC356" s="3"/>
     </row>
-    <row r="357" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" ht="12.75">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -13607,7 +14139,7 @@
       <c r="AB357" s="3"/>
       <c r="AC357" s="3"/>
     </row>
-    <row r="358" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" ht="12.75">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -13638,7 +14170,7 @@
       <c r="AB358" s="3"/>
       <c r="AC358" s="3"/>
     </row>
-    <row r="359" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" ht="12.75">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -13669,7 +14201,7 @@
       <c r="AB359" s="3"/>
       <c r="AC359" s="3"/>
     </row>
-    <row r="360" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" ht="12.75">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -13700,7 +14232,7 @@
       <c r="AB360" s="3"/>
       <c r="AC360" s="3"/>
     </row>
-    <row r="361" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" ht="12.75">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -13731,7 +14263,7 @@
       <c r="AB361" s="3"/>
       <c r="AC361" s="3"/>
     </row>
-    <row r="362" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" ht="12.75">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -13762,7 +14294,7 @@
       <c r="AB362" s="3"/>
       <c r="AC362" s="3"/>
     </row>
-    <row r="363" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29" ht="12.75">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -13793,7 +14325,7 @@
       <c r="AB363" s="3"/>
       <c r="AC363" s="3"/>
     </row>
-    <row r="364" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29" ht="12.75">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -13824,7 +14356,7 @@
       <c r="AB364" s="3"/>
       <c r="AC364" s="3"/>
     </row>
-    <row r="365" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29" ht="12.75">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -13855,7 +14387,7 @@
       <c r="AB365" s="3"/>
       <c r="AC365" s="3"/>
     </row>
-    <row r="366" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" ht="12.75">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -13886,7 +14418,7 @@
       <c r="AB366" s="3"/>
       <c r="AC366" s="3"/>
     </row>
-    <row r="367" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" ht="12.75">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -13917,7 +14449,7 @@
       <c r="AB367" s="3"/>
       <c r="AC367" s="3"/>
     </row>
-    <row r="368" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" ht="12.75">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -13948,7 +14480,7 @@
       <c r="AB368" s="3"/>
       <c r="AC368" s="3"/>
     </row>
-    <row r="369" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" ht="12.75">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -13979,7 +14511,7 @@
       <c r="AB369" s="3"/>
       <c r="AC369" s="3"/>
     </row>
-    <row r="370" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" ht="12.75">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -14010,7 +14542,7 @@
       <c r="AB370" s="3"/>
       <c r="AC370" s="3"/>
     </row>
-    <row r="371" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" ht="12.75">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -14041,7 +14573,7 @@
       <c r="AB371" s="3"/>
       <c r="AC371" s="3"/>
     </row>
-    <row r="372" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" ht="12.75">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -14072,7 +14604,7 @@
       <c r="AB372" s="3"/>
       <c r="AC372" s="3"/>
     </row>
-    <row r="373" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" ht="12.75">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -14103,7 +14635,7 @@
       <c r="AB373" s="3"/>
       <c r="AC373" s="3"/>
     </row>
-    <row r="374" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" ht="12.75">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -14134,7 +14666,7 @@
       <c r="AB374" s="3"/>
       <c r="AC374" s="3"/>
     </row>
-    <row r="375" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" ht="12.75">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -14165,7 +14697,7 @@
       <c r="AB375" s="3"/>
       <c r="AC375" s="3"/>
     </row>
-    <row r="376" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29" ht="12.75">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -14196,7 +14728,7 @@
       <c r="AB376" s="3"/>
       <c r="AC376" s="3"/>
     </row>
-    <row r="377" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29" ht="12.75">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -14227,7 +14759,7 @@
       <c r="AB377" s="3"/>
       <c r="AC377" s="3"/>
     </row>
-    <row r="378" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" ht="12.75">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -14258,7 +14790,7 @@
       <c r="AB378" s="3"/>
       <c r="AC378" s="3"/>
     </row>
-    <row r="379" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29" ht="12.75">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -14289,7 +14821,7 @@
       <c r="AB379" s="3"/>
       <c r="AC379" s="3"/>
     </row>
-    <row r="380" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" ht="12.75">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -14320,7 +14852,7 @@
       <c r="AB380" s="3"/>
       <c r="AC380" s="3"/>
     </row>
-    <row r="381" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" ht="12.75">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -14351,7 +14883,7 @@
       <c r="AB381" s="3"/>
       <c r="AC381" s="3"/>
     </row>
-    <row r="382" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" ht="12.75">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -14382,7 +14914,7 @@
       <c r="AB382" s="3"/>
       <c r="AC382" s="3"/>
     </row>
-    <row r="383" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" ht="12.75">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -14413,7 +14945,7 @@
       <c r="AB383" s="3"/>
       <c r="AC383" s="3"/>
     </row>
-    <row r="384" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" ht="12.75">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -14444,7 +14976,7 @@
       <c r="AB384" s="3"/>
       <c r="AC384" s="3"/>
     </row>
-    <row r="385" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" ht="12.75">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -14475,7 +15007,7 @@
       <c r="AB385" s="3"/>
       <c r="AC385" s="3"/>
     </row>
-    <row r="386" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" ht="12.75">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -14506,7 +15038,7 @@
       <c r="AB386" s="3"/>
       <c r="AC386" s="3"/>
     </row>
-    <row r="387" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" ht="12.75">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -14537,7 +15069,7 @@
       <c r="AB387" s="3"/>
       <c r="AC387" s="3"/>
     </row>
-    <row r="388" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29" ht="12.75">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -14568,7 +15100,7 @@
       <c r="AB388" s="3"/>
       <c r="AC388" s="3"/>
     </row>
-    <row r="389" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29" ht="12.75">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -14599,7 +15131,7 @@
       <c r="AB389" s="3"/>
       <c r="AC389" s="3"/>
     </row>
-    <row r="390" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29" ht="12.75">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -14630,7 +15162,7 @@
       <c r="AB390" s="3"/>
       <c r="AC390" s="3"/>
     </row>
-    <row r="391" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29" ht="12.75">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -14661,7 +15193,7 @@
       <c r="AB391" s="3"/>
       <c r="AC391" s="3"/>
     </row>
-    <row r="392" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29" ht="12.75">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -14692,7 +15224,7 @@
       <c r="AB392" s="3"/>
       <c r="AC392" s="3"/>
     </row>
-    <row r="393" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29" ht="12.75">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -14723,7 +15255,7 @@
       <c r="AB393" s="3"/>
       <c r="AC393" s="3"/>
     </row>
-    <row r="394" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29" ht="12.75">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -14754,7 +15286,7 @@
       <c r="AB394" s="3"/>
       <c r="AC394" s="3"/>
     </row>
-    <row r="395" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29" ht="12.75">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -14785,7 +15317,7 @@
       <c r="AB395" s="3"/>
       <c r="AC395" s="3"/>
     </row>
-    <row r="396" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29" ht="12.75">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -14816,7 +15348,7 @@
       <c r="AB396" s="3"/>
       <c r="AC396" s="3"/>
     </row>
-    <row r="397" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29" ht="12.75">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -14847,7 +15379,7 @@
       <c r="AB397" s="3"/>
       <c r="AC397" s="3"/>
     </row>
-    <row r="398" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29" ht="12.75">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -14878,7 +15410,7 @@
       <c r="AB398" s="3"/>
       <c r="AC398" s="3"/>
     </row>
-    <row r="399" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29" ht="12.75">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -14909,7 +15441,7 @@
       <c r="AB399" s="3"/>
       <c r="AC399" s="3"/>
     </row>
-    <row r="400" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29" ht="12.75">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -14940,7 +15472,7 @@
       <c r="AB400" s="3"/>
       <c r="AC400" s="3"/>
     </row>
-    <row r="401" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29" ht="12.75">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -14971,7 +15503,7 @@
       <c r="AB401" s="3"/>
       <c r="AC401" s="3"/>
     </row>
-    <row r="402" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29" ht="12.75">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -15002,7 +15534,7 @@
       <c r="AB402" s="3"/>
       <c r="AC402" s="3"/>
     </row>
-    <row r="403" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29" ht="12.75">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -15033,7 +15565,7 @@
       <c r="AB403" s="3"/>
       <c r="AC403" s="3"/>
     </row>
-    <row r="404" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29" ht="12.75">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -15064,7 +15596,7 @@
       <c r="AB404" s="3"/>
       <c r="AC404" s="3"/>
     </row>
-    <row r="405" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29" ht="12.75">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -15095,7 +15627,7 @@
       <c r="AB405" s="3"/>
       <c r="AC405" s="3"/>
     </row>
-    <row r="406" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:29" ht="12.75">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -15126,7 +15658,7 @@
       <c r="AB406" s="3"/>
       <c r="AC406" s="3"/>
     </row>
-    <row r="407" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:29" ht="12.75">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -15157,7 +15689,7 @@
       <c r="AB407" s="3"/>
       <c r="AC407" s="3"/>
     </row>
-    <row r="408" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:29" ht="12.75">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -15188,7 +15720,7 @@
       <c r="AB408" s="3"/>
       <c r="AC408" s="3"/>
     </row>
-    <row r="409" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:29" ht="12.75">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -15219,7 +15751,7 @@
       <c r="AB409" s="3"/>
       <c r="AC409" s="3"/>
     </row>
-    <row r="410" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:29" ht="12.75">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -15250,7 +15782,7 @@
       <c r="AB410" s="3"/>
       <c r="AC410" s="3"/>
     </row>
-    <row r="411" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:29" ht="12.75">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -15281,7 +15813,7 @@
       <c r="AB411" s="3"/>
       <c r="AC411" s="3"/>
     </row>
-    <row r="412" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:29" ht="12.75">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -15312,7 +15844,7 @@
       <c r="AB412" s="3"/>
       <c r="AC412" s="3"/>
     </row>
-    <row r="413" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:29" ht="12.75">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -15343,7 +15875,7 @@
       <c r="AB413" s="3"/>
       <c r="AC413" s="3"/>
     </row>
-    <row r="414" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:29" ht="12.75">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -15374,7 +15906,7 @@
       <c r="AB414" s="3"/>
       <c r="AC414" s="3"/>
     </row>
-    <row r="415" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:29" ht="12.75">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -15405,7 +15937,7 @@
       <c r="AB415" s="3"/>
       <c r="AC415" s="3"/>
     </row>
-    <row r="416" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:29" ht="12.75">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -15436,7 +15968,7 @@
       <c r="AB416" s="3"/>
       <c r="AC416" s="3"/>
     </row>
-    <row r="417" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:29" ht="12.75">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -15467,7 +15999,7 @@
       <c r="AB417" s="3"/>
       <c r="AC417" s="3"/>
     </row>
-    <row r="418" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:29" ht="12.75">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -15498,7 +16030,7 @@
       <c r="AB418" s="3"/>
       <c r="AC418" s="3"/>
     </row>
-    <row r="419" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:29" ht="12.75">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -15529,7 +16061,7 @@
       <c r="AB419" s="3"/>
       <c r="AC419" s="3"/>
     </row>
-    <row r="420" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:29" ht="12.75">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -15560,7 +16092,7 @@
       <c r="AB420" s="3"/>
       <c r="AC420" s="3"/>
     </row>
-    <row r="421" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:29" ht="12.75">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -15591,7 +16123,7 @@
       <c r="AB421" s="3"/>
       <c r="AC421" s="3"/>
     </row>
-    <row r="422" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:29" ht="12.75">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -15622,7 +16154,7 @@
       <c r="AB422" s="3"/>
       <c r="AC422" s="3"/>
     </row>
-    <row r="423" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:29" ht="12.75">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -15653,7 +16185,7 @@
       <c r="AB423" s="3"/>
       <c r="AC423" s="3"/>
     </row>
-    <row r="424" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:29" ht="12.75">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -15684,7 +16216,7 @@
       <c r="AB424" s="3"/>
       <c r="AC424" s="3"/>
     </row>
-    <row r="425" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:29" ht="12.75">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -15715,7 +16247,7 @@
       <c r="AB425" s="3"/>
       <c r="AC425" s="3"/>
     </row>
-    <row r="426" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:29" ht="12.75">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -15746,7 +16278,7 @@
       <c r="AB426" s="3"/>
       <c r="AC426" s="3"/>
     </row>
-    <row r="427" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:29" ht="12.75">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -15777,7 +16309,7 @@
       <c r="AB427" s="3"/>
       <c r="AC427" s="3"/>
     </row>
-    <row r="428" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:29" ht="12.75">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -15808,7 +16340,7 @@
       <c r="AB428" s="3"/>
       <c r="AC428" s="3"/>
     </row>
-    <row r="429" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:29" ht="12.75">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -15839,7 +16371,7 @@
       <c r="AB429" s="3"/>
       <c r="AC429" s="3"/>
     </row>
-    <row r="430" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:29" ht="12.75">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -15870,7 +16402,7 @@
       <c r="AB430" s="3"/>
       <c r="AC430" s="3"/>
     </row>
-    <row r="431" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:29" ht="12.75">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -15901,7 +16433,7 @@
       <c r="AB431" s="3"/>
       <c r="AC431" s="3"/>
     </row>
-    <row r="432" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:29" ht="12.75">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -15932,7 +16464,7 @@
       <c r="AB432" s="3"/>
       <c r="AC432" s="3"/>
     </row>
-    <row r="433" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:29" ht="12.75">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -15963,7 +16495,7 @@
       <c r="AB433" s="3"/>
       <c r="AC433" s="3"/>
     </row>
-    <row r="434" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:29" ht="12.75">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -15994,7 +16526,7 @@
       <c r="AB434" s="3"/>
       <c r="AC434" s="3"/>
     </row>
-    <row r="435" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:29" ht="12.75">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -16025,7 +16557,7 @@
       <c r="AB435" s="3"/>
       <c r="AC435" s="3"/>
     </row>
-    <row r="436" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:29" ht="12.75">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -16056,7 +16588,7 @@
       <c r="AB436" s="3"/>
       <c r="AC436" s="3"/>
     </row>
-    <row r="437" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:29" ht="12.75">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -16087,7 +16619,7 @@
       <c r="AB437" s="3"/>
       <c r="AC437" s="3"/>
     </row>
-    <row r="438" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:29" ht="12.75">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -16118,7 +16650,7 @@
       <c r="AB438" s="3"/>
       <c r="AC438" s="3"/>
     </row>
-    <row r="439" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:29" ht="12.75">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -16149,7 +16681,7 @@
       <c r="AB439" s="3"/>
       <c r="AC439" s="3"/>
     </row>
-    <row r="440" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:29" ht="12.75">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -16180,7 +16712,7 @@
       <c r="AB440" s="3"/>
       <c r="AC440" s="3"/>
     </row>
-    <row r="441" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:29" ht="12.75">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -16211,7 +16743,7 @@
       <c r="AB441" s="3"/>
       <c r="AC441" s="3"/>
     </row>
-    <row r="442" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:29" ht="12.75">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -16242,7 +16774,7 @@
       <c r="AB442" s="3"/>
       <c r="AC442" s="3"/>
     </row>
-    <row r="443" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:29" ht="12.75">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -16273,7 +16805,7 @@
       <c r="AB443" s="3"/>
       <c r="AC443" s="3"/>
     </row>
-    <row r="444" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:29" ht="12.75">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -16304,7 +16836,7 @@
       <c r="AB444" s="3"/>
       <c r="AC444" s="3"/>
     </row>
-    <row r="445" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:29" ht="12.75">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -16335,7 +16867,7 @@
       <c r="AB445" s="3"/>
       <c r="AC445" s="3"/>
     </row>
-    <row r="446" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:29" ht="12.75">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -16366,7 +16898,7 @@
       <c r="AB446" s="3"/>
       <c r="AC446" s="3"/>
     </row>
-    <row r="447" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:29" ht="12.75">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -16397,7 +16929,7 @@
       <c r="AB447" s="3"/>
       <c r="AC447" s="3"/>
     </row>
-    <row r="448" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:29" ht="12.75">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -16428,7 +16960,7 @@
       <c r="AB448" s="3"/>
       <c r="AC448" s="3"/>
     </row>
-    <row r="449" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29" ht="12.75">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -16459,7 +16991,7 @@
       <c r="AB449" s="3"/>
       <c r="AC449" s="3"/>
     </row>
-    <row r="450" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29" ht="12.75">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -16490,7 +17022,7 @@
       <c r="AB450" s="3"/>
       <c r="AC450" s="3"/>
     </row>
-    <row r="451" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29" ht="12.75">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -16521,7 +17053,7 @@
       <c r="AB451" s="3"/>
       <c r="AC451" s="3"/>
     </row>
-    <row r="452" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29" ht="12.75">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -16552,7 +17084,7 @@
       <c r="AB452" s="3"/>
       <c r="AC452" s="3"/>
     </row>
-    <row r="453" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29" ht="12.75">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -16583,7 +17115,7 @@
       <c r="AB453" s="3"/>
       <c r="AC453" s="3"/>
     </row>
-    <row r="454" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" ht="12.75">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -16614,7 +17146,7 @@
       <c r="AB454" s="3"/>
       <c r="AC454" s="3"/>
     </row>
-    <row r="455" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" ht="12.75">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -16645,7 +17177,7 @@
       <c r="AB455" s="3"/>
       <c r="AC455" s="3"/>
     </row>
-    <row r="456" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" ht="12.75">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -16676,7 +17208,7 @@
       <c r="AB456" s="3"/>
       <c r="AC456" s="3"/>
     </row>
-    <row r="457" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" ht="12.75">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -16707,7 +17239,7 @@
       <c r="AB457" s="3"/>
       <c r="AC457" s="3"/>
     </row>
-    <row r="458" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" ht="12.75">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -16738,7 +17270,7 @@
       <c r="AB458" s="3"/>
       <c r="AC458" s="3"/>
     </row>
-    <row r="459" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" ht="12.75">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -16769,7 +17301,7 @@
       <c r="AB459" s="3"/>
       <c r="AC459" s="3"/>
     </row>
-    <row r="460" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" ht="12.75">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -16800,7 +17332,7 @@
       <c r="AB460" s="3"/>
       <c r="AC460" s="3"/>
     </row>
-    <row r="461" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" ht="12.75">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -16831,7 +17363,7 @@
       <c r="AB461" s="3"/>
       <c r="AC461" s="3"/>
     </row>
-    <row r="462" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" ht="12.75">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -16862,7 +17394,7 @@
       <c r="AB462" s="3"/>
       <c r="AC462" s="3"/>
     </row>
-    <row r="463" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" ht="12.75">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -16893,7 +17425,7 @@
       <c r="AB463" s="3"/>
       <c r="AC463" s="3"/>
     </row>
-    <row r="464" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" ht="12.75">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -16924,7 +17456,7 @@
       <c r="AB464" s="3"/>
       <c r="AC464" s="3"/>
     </row>
-    <row r="465" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:29" ht="12.75">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -16955,7 +17487,7 @@
       <c r="AB465" s="3"/>
       <c r="AC465" s="3"/>
     </row>
-    <row r="466" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:29" ht="12.75">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -16986,7 +17518,7 @@
       <c r="AB466" s="3"/>
       <c r="AC466" s="3"/>
     </row>
-    <row r="467" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:29" ht="12.75">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -17017,7 +17549,7 @@
       <c r="AB467" s="3"/>
       <c r="AC467" s="3"/>
     </row>
-    <row r="468" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:29" ht="12.75">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -17048,7 +17580,7 @@
       <c r="AB468" s="3"/>
       <c r="AC468" s="3"/>
     </row>
-    <row r="469" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:29" ht="12.75">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -17079,7 +17611,7 @@
       <c r="AB469" s="3"/>
       <c r="AC469" s="3"/>
     </row>
-    <row r="470" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:29" ht="12.75">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -17110,7 +17642,7 @@
       <c r="AB470" s="3"/>
       <c r="AC470" s="3"/>
     </row>
-    <row r="471" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:29" ht="12.75">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -17141,7 +17673,7 @@
       <c r="AB471" s="3"/>
       <c r="AC471" s="3"/>
     </row>
-    <row r="472" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:29" ht="12.75">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -17172,7 +17704,7 @@
       <c r="AB472" s="3"/>
       <c r="AC472" s="3"/>
     </row>
-    <row r="473" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:29" ht="12.75">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -17203,7 +17735,7 @@
       <c r="AB473" s="3"/>
       <c r="AC473" s="3"/>
     </row>
-    <row r="474" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:29" ht="12.75">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -17234,7 +17766,7 @@
       <c r="AB474" s="3"/>
       <c r="AC474" s="3"/>
     </row>
-    <row r="475" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:29" ht="12.75">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -17265,7 +17797,7 @@
       <c r="AB475" s="3"/>
       <c r="AC475" s="3"/>
     </row>
-    <row r="476" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:29" ht="12.75">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -17296,7 +17828,7 @@
       <c r="AB476" s="3"/>
       <c r="AC476" s="3"/>
     </row>
-    <row r="477" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:29" ht="12.75">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -17327,7 +17859,7 @@
       <c r="AB477" s="3"/>
       <c r="AC477" s="3"/>
     </row>
-    <row r="478" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:29" ht="12.75">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -17358,7 +17890,7 @@
       <c r="AB478" s="3"/>
       <c r="AC478" s="3"/>
     </row>
-    <row r="479" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:29" ht="12.75">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -17389,7 +17921,7 @@
       <c r="AB479" s="3"/>
       <c r="AC479" s="3"/>
     </row>
-    <row r="480" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:29" ht="12.75">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -17420,7 +17952,7 @@
       <c r="AB480" s="3"/>
       <c r="AC480" s="3"/>
     </row>
-    <row r="481" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:29" ht="12.75">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -17451,7 +17983,7 @@
       <c r="AB481" s="3"/>
       <c r="AC481" s="3"/>
     </row>
-    <row r="482" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:29" ht="12.75">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -17482,7 +18014,7 @@
       <c r="AB482" s="3"/>
       <c r="AC482" s="3"/>
     </row>
-    <row r="483" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:29" ht="12.75">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -17513,7 +18045,7 @@
       <c r="AB483" s="3"/>
       <c r="AC483" s="3"/>
     </row>
-    <row r="484" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:29" ht="12.75">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -17544,7 +18076,7 @@
       <c r="AB484" s="3"/>
       <c r="AC484" s="3"/>
     </row>
-    <row r="485" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:29" ht="12.75">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -17575,7 +18107,7 @@
       <c r="AB485" s="3"/>
       <c r="AC485" s="3"/>
     </row>
-    <row r="486" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:29" ht="12.75">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -17606,7 +18138,7 @@
       <c r="AB486" s="3"/>
       <c r="AC486" s="3"/>
     </row>
-    <row r="487" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:29" ht="12.75">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -17637,7 +18169,7 @@
       <c r="AB487" s="3"/>
       <c r="AC487" s="3"/>
     </row>
-    <row r="488" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:29" ht="12.75">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -17668,7 +18200,7 @@
       <c r="AB488" s="3"/>
       <c r="AC488" s="3"/>
     </row>
-    <row r="489" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:29" ht="12.75">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -17699,7 +18231,7 @@
       <c r="AB489" s="3"/>
       <c r="AC489" s="3"/>
     </row>
-    <row r="490" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:29" ht="12.75">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -17730,7 +18262,7 @@
       <c r="AB490" s="3"/>
       <c r="AC490" s="3"/>
     </row>
-    <row r="491" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:29" ht="12.75">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -17761,7 +18293,7 @@
       <c r="AB491" s="3"/>
       <c r="AC491" s="3"/>
     </row>
-    <row r="492" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:29" ht="12.75">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -17792,7 +18324,7 @@
       <c r="AB492" s="3"/>
       <c r="AC492" s="3"/>
     </row>
-    <row r="493" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:29" ht="12.75">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -17823,7 +18355,7 @@
       <c r="AB493" s="3"/>
       <c r="AC493" s="3"/>
     </row>
-    <row r="494" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:29" ht="12.75">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -17854,7 +18386,7 @@
       <c r="AB494" s="3"/>
       <c r="AC494" s="3"/>
     </row>
-    <row r="495" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:29" ht="12.75">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -17885,7 +18417,7 @@
       <c r="AB495" s="3"/>
       <c r="AC495" s="3"/>
     </row>
-    <row r="496" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:29" ht="12.75">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -17916,7 +18448,7 @@
       <c r="AB496" s="3"/>
       <c r="AC496" s="3"/>
     </row>
-    <row r="497" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:29" ht="12.75">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -17947,7 +18479,7 @@
       <c r="AB497" s="3"/>
       <c r="AC497" s="3"/>
     </row>
-    <row r="498" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:29" ht="12.75">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -17978,7 +18510,7 @@
       <c r="AB498" s="3"/>
       <c r="AC498" s="3"/>
     </row>
-    <row r="499" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:29" ht="12.75">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -18009,7 +18541,7 @@
       <c r="AB499" s="3"/>
       <c r="AC499" s="3"/>
     </row>
-    <row r="500" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:29" ht="12.75">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -18040,7 +18572,7 @@
       <c r="AB500" s="3"/>
       <c r="AC500" s="3"/>
     </row>
-    <row r="501" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:29" ht="12.75">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -18071,7 +18603,7 @@
       <c r="AB501" s="3"/>
       <c r="AC501" s="3"/>
     </row>
-    <row r="502" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:29" ht="12.75">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -18102,7 +18634,7 @@
       <c r="AB502" s="3"/>
       <c r="AC502" s="3"/>
     </row>
-    <row r="503" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:29" ht="15.75" customHeight="1">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -18118,7 +18650,7 @@
       <c r="M503" s="3"/>
       <c r="N503" s="3"/>
     </row>
-    <row r="504" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:29" ht="15.75" customHeight="1">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -18134,7 +18666,7 @@
       <c r="M504" s="3"/>
       <c r="N504" s="3"/>
     </row>
-    <row r="505" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:29" ht="15.75" customHeight="1">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -18150,7 +18682,7 @@
       <c r="M505" s="3"/>
       <c r="N505" s="3"/>
     </row>
-    <row r="506" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:29" ht="15.75" customHeight="1">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -18166,7 +18698,7 @@
       <c r="M506" s="3"/>
       <c r="N506" s="3"/>
     </row>
-    <row r="507" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:29" ht="15.75" customHeight="1">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -18182,7 +18714,7 @@
       <c r="M507" s="3"/>
       <c r="N507" s="3"/>
     </row>
-    <row r="508" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:29" ht="15.75" customHeight="1">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -18198,7 +18730,7 @@
       <c r="M508" s="3"/>
       <c r="N508" s="3"/>
     </row>
-    <row r="509" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:29" ht="15.75" customHeight="1">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -18214,7 +18746,7 @@
       <c r="M509" s="3"/>
       <c r="N509" s="3"/>
     </row>
-    <row r="510" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:29" ht="15.75" customHeight="1">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -18230,7 +18762,7 @@
       <c r="M510" s="3"/>
       <c r="N510" s="3"/>
     </row>
-    <row r="511" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:29" ht="15.75" customHeight="1">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -18246,7 +18778,7 @@
       <c r="M511" s="3"/>
       <c r="N511" s="3"/>
     </row>
-    <row r="512" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:29" ht="15.75" customHeight="1">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -18262,7 +18794,7 @@
       <c r="M512" s="3"/>
       <c r="N512" s="3"/>
     </row>
-    <row r="513" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" ht="15.75" customHeight="1">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -18278,7 +18810,7 @@
       <c r="M513" s="3"/>
       <c r="N513" s="3"/>
     </row>
-    <row r="514" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" ht="15.75" customHeight="1">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -18294,7 +18826,7 @@
       <c r="M514" s="3"/>
       <c r="N514" s="3"/>
     </row>
-    <row r="515" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:14" ht="15.75" customHeight="1">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -18310,7 +18842,7 @@
       <c r="M515" s="3"/>
       <c r="N515" s="3"/>
     </row>
-    <row r="516" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" ht="15.75" customHeight="1">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -18326,7 +18858,7 @@
       <c r="M516" s="3"/>
       <c r="N516" s="3"/>
     </row>
-    <row r="517" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" ht="15.75" customHeight="1">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -18342,7 +18874,7 @@
       <c r="M517" s="3"/>
       <c r="N517" s="3"/>
     </row>
-    <row r="518" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" ht="15.75" customHeight="1">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -18358,7 +18890,7 @@
       <c r="M518" s="3"/>
       <c r="N518" s="3"/>
     </row>
-    <row r="519" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:14" ht="15.75" customHeight="1">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -18374,7 +18906,7 @@
       <c r="M519" s="3"/>
       <c r="N519" s="3"/>
     </row>
-    <row r="520" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:14" ht="15.75" customHeight="1">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -18390,7 +18922,7 @@
       <c r="M520" s="3"/>
       <c r="N520" s="3"/>
     </row>
-    <row r="521" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:14" ht="15.75" customHeight="1">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -18406,7 +18938,7 @@
       <c r="M521" s="3"/>
       <c r="N521" s="3"/>
     </row>
-    <row r="522" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:14" ht="15.75" customHeight="1">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -18422,7 +18954,7 @@
       <c r="M522" s="3"/>
       <c r="N522" s="3"/>
     </row>
-    <row r="523" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:14" ht="15.75" customHeight="1">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -18438,7 +18970,7 @@
       <c r="M523" s="3"/>
       <c r="N523" s="3"/>
     </row>
-    <row r="524" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:14" ht="15.75" customHeight="1">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -18454,7 +18986,7 @@
       <c r="M524" s="3"/>
       <c r="N524" s="3"/>
     </row>
-    <row r="525" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:14" ht="15.75" customHeight="1">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -18470,7 +19002,7 @@
       <c r="M525" s="3"/>
       <c r="N525" s="3"/>
     </row>
-    <row r="526" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:14" ht="15.75" customHeight="1">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -18486,7 +19018,7 @@
       <c r="M526" s="3"/>
       <c r="N526" s="3"/>
     </row>
-    <row r="527" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:14" ht="15.75" customHeight="1">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -18502,7 +19034,7 @@
       <c r="M527" s="3"/>
       <c r="N527" s="3"/>
     </row>
-    <row r="528" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:14" ht="15.75" customHeight="1">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -18518,7 +19050,7 @@
       <c r="M528" s="3"/>
       <c r="N528" s="3"/>
     </row>
-    <row r="529" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:14" ht="15.75" customHeight="1">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -18534,7 +19066,7 @@
       <c r="M529" s="3"/>
       <c r="N529" s="3"/>
     </row>
-    <row r="530" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:14" ht="15.75" customHeight="1">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -18550,7 +19082,7 @@
       <c r="M530" s="3"/>
       <c r="N530" s="3"/>
     </row>
-    <row r="531" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:14" ht="15.75" customHeight="1">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -18566,7 +19098,7 @@
       <c r="M531" s="3"/>
       <c r="N531" s="3"/>
     </row>
-    <row r="532" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:14" ht="15.75" customHeight="1">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -18582,7 +19114,7 @@
       <c r="M532" s="3"/>
       <c r="N532" s="3"/>
     </row>
-    <row r="533" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:14" ht="15.75" customHeight="1">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -18598,7 +19130,7 @@
       <c r="M533" s="3"/>
       <c r="N533" s="3"/>
     </row>
-    <row r="534" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:14" ht="15.75" customHeight="1">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -18614,7 +19146,7 @@
       <c r="M534" s="3"/>
       <c r="N534" s="3"/>
     </row>
-    <row r="535" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:14" ht="15.75" customHeight="1">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -18630,7 +19162,7 @@
       <c r="M535" s="3"/>
       <c r="N535" s="3"/>
     </row>
-    <row r="536" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:14" ht="15.75" customHeight="1">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -18646,7 +19178,7 @@
       <c r="M536" s="3"/>
       <c r="N536" s="3"/>
     </row>
-    <row r="537" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:14" ht="15.75" customHeight="1">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -18662,7 +19194,7 @@
       <c r="M537" s="3"/>
       <c r="N537" s="3"/>
     </row>
-    <row r="538" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:14" ht="15.75" customHeight="1">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -18678,7 +19210,7 @@
       <c r="M538" s="3"/>
       <c r="N538" s="3"/>
     </row>
-    <row r="539" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:14" ht="15.75" customHeight="1">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -18694,7 +19226,7 @@
       <c r="M539" s="3"/>
       <c r="N539" s="3"/>
     </row>
-    <row r="540" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:14" ht="15.75" customHeight="1">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -18710,7 +19242,7 @@
       <c r="M540" s="3"/>
       <c r="N540" s="3"/>
     </row>
-    <row r="541" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:14" ht="15.75" customHeight="1">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -18726,7 +19258,7 @@
       <c r="M541" s="3"/>
       <c r="N541" s="3"/>
     </row>
-    <row r="542" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:14" ht="15.75" customHeight="1">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -18742,7 +19274,7 @@
       <c r="M542" s="3"/>
       <c r="N542" s="3"/>
     </row>
-    <row r="543" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:14" ht="15.75" customHeight="1">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -18758,7 +19290,7 @@
       <c r="M543" s="3"/>
       <c r="N543" s="3"/>
     </row>
-    <row r="544" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:14" ht="15.75" customHeight="1">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -18774,7 +19306,7 @@
       <c r="M544" s="3"/>
       <c r="N544" s="3"/>
     </row>
-    <row r="545" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:14" ht="15.75" customHeight="1">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -18790,7 +19322,7 @@
       <c r="M545" s="3"/>
       <c r="N545" s="3"/>
     </row>
-    <row r="546" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:14" ht="15.75" customHeight="1">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -18806,7 +19338,7 @@
       <c r="M546" s="3"/>
       <c r="N546" s="3"/>
     </row>
-    <row r="547" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:14" ht="15.75" customHeight="1">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -18822,7 +19354,7 @@
       <c r="M547" s="3"/>
       <c r="N547" s="3"/>
     </row>
-    <row r="548" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:14" ht="15.75" customHeight="1">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -18838,7 +19370,7 @@
       <c r="M548" s="3"/>
       <c r="N548" s="3"/>
     </row>
-    <row r="549" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:14" ht="15.75" customHeight="1">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -18854,7 +19386,7 @@
       <c r="M549" s="3"/>
       <c r="N549" s="3"/>
     </row>
-    <row r="550" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:14" ht="15.75" customHeight="1">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -18870,7 +19402,7 @@
       <c r="M550" s="3"/>
       <c r="N550" s="3"/>
     </row>
-    <row r="551" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:14" ht="15.75" customHeight="1">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -18886,7 +19418,7 @@
       <c r="M551" s="3"/>
       <c r="N551" s="3"/>
     </row>
-    <row r="552" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:14" ht="15.75" customHeight="1">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -18902,7 +19434,7 @@
       <c r="M552" s="3"/>
       <c r="N552" s="3"/>
     </row>
-    <row r="553" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:14" ht="15.75" customHeight="1">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -18918,7 +19450,7 @@
       <c r="M553" s="3"/>
       <c r="N553" s="3"/>
     </row>
-    <row r="554" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:14" ht="15.75" customHeight="1">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -18934,7 +19466,7 @@
       <c r="M554" s="3"/>
       <c r="N554" s="3"/>
     </row>
-    <row r="555" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:14" ht="15.75" customHeight="1">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -18950,7 +19482,7 @@
       <c r="M555" s="3"/>
       <c r="N555" s="3"/>
     </row>
-    <row r="556" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:14" ht="15.75" customHeight="1">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -18966,7 +19498,7 @@
       <c r="M556" s="3"/>
       <c r="N556" s="3"/>
     </row>
-    <row r="557" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:14" ht="15.75" customHeight="1">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -18982,7 +19514,7 @@
       <c r="M557" s="3"/>
       <c r="N557" s="3"/>
     </row>
-    <row r="558" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:14" ht="15.75" customHeight="1">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -18998,7 +19530,7 @@
       <c r="M558" s="3"/>
       <c r="N558" s="3"/>
     </row>
-    <row r="559" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:14" ht="15.75" customHeight="1">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -19014,7 +19546,7 @@
       <c r="M559" s="3"/>
       <c r="N559" s="3"/>
     </row>
-    <row r="560" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:14" ht="15.75" customHeight="1">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -19030,7 +19562,7 @@
       <c r="M560" s="3"/>
       <c r="N560" s="3"/>
     </row>
-    <row r="561" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:14" ht="15.75" customHeight="1">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -19046,7 +19578,7 @@
       <c r="M561" s="3"/>
       <c r="N561" s="3"/>
     </row>
-    <row r="562" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:14" ht="15.75" customHeight="1">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -19062,7 +19594,7 @@
       <c r="M562" s="3"/>
       <c r="N562" s="3"/>
     </row>
-    <row r="563" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:14" ht="15.75" customHeight="1">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -19078,7 +19610,7 @@
       <c r="M563" s="3"/>
       <c r="N563" s="3"/>
     </row>
-    <row r="564" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:14" ht="15.75" customHeight="1">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -19094,7 +19626,7 @@
       <c r="M564" s="3"/>
       <c r="N564" s="3"/>
     </row>
-    <row r="565" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:14" ht="15.75" customHeight="1">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -19110,7 +19642,7 @@
       <c r="M565" s="3"/>
       <c r="N565" s="3"/>
     </row>
-    <row r="566" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:14" ht="15.75" customHeight="1">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -19126,7 +19658,7 @@
       <c r="M566" s="3"/>
       <c r="N566" s="3"/>
     </row>
-    <row r="567" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:14" ht="15.75" customHeight="1">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -19142,7 +19674,7 @@
       <c r="M567" s="3"/>
       <c r="N567" s="3"/>
     </row>
-    <row r="568" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:14" ht="15.75" customHeight="1">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -19158,7 +19690,7 @@
       <c r="M568" s="3"/>
       <c r="N568" s="3"/>
     </row>
-    <row r="569" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:14" ht="15.75" customHeight="1">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -19174,7 +19706,7 @@
       <c r="M569" s="3"/>
       <c r="N569" s="3"/>
     </row>
-    <row r="570" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:14" ht="15.75" customHeight="1">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -19192,6 +19724,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C12:C48"/>
+    <mergeCell ref="A4:A48"/>
+    <mergeCell ref="B4:B48"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D30:D48"/>
+    <mergeCell ref="C62:C100"/>
+    <mergeCell ref="D62:D67"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E91:E93"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="B62:B100"/>
@@ -19208,56 +19790,6 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="D54:D61"/>
-    <mergeCell ref="C62:C100"/>
-    <mergeCell ref="D62:D67"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="A4:A48"/>
-    <mergeCell ref="B4:B48"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D30:D48"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C12:C48"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:B61"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
